--- a/PythonResources/Data/Consumption/Sympheny/base_1058x1060_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/base_1058x1060_coo.xlsx
@@ -423,7 +423,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>379.922640968635</v>
+        <v>379.9226409686349</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -463,7 +463,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>816.2585261691924</v>
+        <v>816.2585261691922</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -487,7 +487,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>327.8790859231533</v>
+        <v>327.8790859231532</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -831,7 +831,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>709.4751625225446</v>
+        <v>709.4751625225445</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -839,7 +839,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>851.4299815189404</v>
+        <v>851.4299815189403</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -871,7 +871,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>536.6218639200831</v>
+        <v>536.621863920083</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -895,7 +895,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>754.2945164650241</v>
+        <v>754.294516465024</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -943,7 +943,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>785.8787823015573</v>
+        <v>785.8787823015572</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1079,7 +1079,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>91.95279680622906</v>
+        <v>91.95279680622905</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -8311,7 +8311,7 @@
         <v>996</v>
       </c>
       <c r="B996">
-        <v>193.3445325546241</v>
+        <v>193.344532554624</v>
       </c>
     </row>
     <row r="997" spans="1:2">
@@ -8327,7 +8327,7 @@
         <v>998</v>
       </c>
       <c r="B998">
-        <v>183.5070169998787</v>
+        <v>183.5070169998786</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -8895,7 +8895,7 @@
         <v>1069</v>
       </c>
       <c r="B1069">
-        <v>247.8021137455593</v>
+        <v>247.8021137455592</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
@@ -10071,7 +10071,7 @@
         <v>1216</v>
       </c>
       <c r="B1216">
-        <v>318.442198478258</v>
+        <v>318.4421984782579</v>
       </c>
     </row>
     <row r="1217" spans="1:2">
@@ -10079,7 +10079,7 @@
         <v>1217</v>
       </c>
       <c r="B1217">
-        <v>551.0907810987937</v>
+        <v>551.0907810987936</v>
       </c>
     </row>
     <row r="1218" spans="1:2">
@@ -10111,7 +10111,7 @@
         <v>1221</v>
       </c>
       <c r="B1221">
-        <v>418.5171660499476</v>
+        <v>418.5171660499475</v>
       </c>
     </row>
     <row r="1222" spans="1:2">
@@ -10159,7 +10159,7 @@
         <v>1227</v>
       </c>
       <c r="B1227">
-        <v>359.9850182085037</v>
+        <v>359.9850182085036</v>
       </c>
     </row>
     <row r="1228" spans="1:2">
@@ -10175,7 +10175,7 @@
         <v>1229</v>
       </c>
       <c r="B1229">
-        <v>241.7797969721073</v>
+        <v>241.7797969721072</v>
       </c>
     </row>
     <row r="1230" spans="1:2">
@@ -10359,7 +10359,7 @@
         <v>1252</v>
       </c>
       <c r="B1252">
-        <v>198.8809375459756</v>
+        <v>198.8809375459755</v>
       </c>
     </row>
     <row r="1253" spans="1:2">
@@ -10375,7 +10375,7 @@
         <v>1254</v>
       </c>
       <c r="B1254">
-        <v>142.9357277627954</v>
+        <v>142.9357277627953</v>
       </c>
     </row>
     <row r="1255" spans="1:2">
@@ -10431,7 +10431,7 @@
         <v>1261</v>
       </c>
       <c r="B1261">
-        <v>410.0708587157276</v>
+        <v>410.0708587157275</v>
       </c>
     </row>
     <row r="1262" spans="1:2">
@@ -10543,7 +10543,7 @@
         <v>1275</v>
       </c>
       <c r="B1275">
-        <v>91.25001245551915</v>
+        <v>91.25001245551914</v>
       </c>
     </row>
     <row r="1276" spans="1:2">
@@ -10591,7 +10591,7 @@
         <v>1281</v>
       </c>
       <c r="B1281">
-        <v>95.84272870238109</v>
+        <v>95.84272870238108</v>
       </c>
     </row>
     <row r="1282" spans="1:2">
@@ -10663,7 +10663,7 @@
         <v>1290</v>
       </c>
       <c r="B1290">
-        <v>239.6570834390832</v>
+        <v>239.6570834390831</v>
       </c>
     </row>
     <row r="1291" spans="1:2">
@@ -11023,7 +11023,7 @@
         <v>1335</v>
       </c>
       <c r="B1335">
-        <v>1083.723948182696</v>
+        <v>1083.723948182695</v>
       </c>
     </row>
     <row r="1336" spans="1:2">
@@ -11175,7 +11175,7 @@
         <v>1354</v>
       </c>
       <c r="B1354">
-        <v>459.2569711342612</v>
+        <v>459.2569711342611</v>
       </c>
     </row>
     <row r="1355" spans="1:2">
@@ -11207,7 +11207,7 @@
         <v>1358</v>
       </c>
       <c r="B1358">
-        <v>462.1144137612093</v>
+        <v>462.1144137612092</v>
       </c>
     </row>
     <row r="1359" spans="1:2">
@@ -11223,7 +11223,7 @@
         <v>1360</v>
       </c>
       <c r="B1360">
-        <v>236.3749808771148</v>
+        <v>236.3749808771147</v>
       </c>
     </row>
     <row r="1361" spans="1:2">
@@ -11279,7 +11279,7 @@
         <v>1367</v>
       </c>
       <c r="B1367">
-        <v>39.79054799008952</v>
+        <v>39.79054799008951</v>
       </c>
     </row>
     <row r="1368" spans="1:2">
@@ -11615,7 +11615,7 @@
         <v>1409</v>
       </c>
       <c r="B1409">
-        <v>728.0060442971014</v>
+        <v>728.0060442971013</v>
       </c>
     </row>
     <row r="1410" spans="1:2">
@@ -15263,7 +15263,7 @@
         <v>1865</v>
       </c>
       <c r="B1865">
-        <v>234.857752109965</v>
+        <v>234.8577521099649</v>
       </c>
     </row>
     <row r="1866" spans="1:2">
@@ -16999,7 +16999,7 @@
         <v>2082</v>
       </c>
       <c r="B2082">
-        <v>735.8662095539987</v>
+        <v>735.8662095539986</v>
       </c>
     </row>
     <row r="2083" spans="1:2">
@@ -17191,7 +17191,7 @@
         <v>2106</v>
       </c>
       <c r="B2106">
-        <v>645.0845246182604</v>
+        <v>645.0845246182603</v>
       </c>
     </row>
     <row r="2107" spans="1:2">
@@ -17199,7 +17199,7 @@
         <v>2107</v>
       </c>
       <c r="B2107">
-        <v>426.3626777549118</v>
+        <v>426.3626777549117</v>
       </c>
     </row>
     <row r="2108" spans="1:2">
@@ -17311,7 +17311,7 @@
         <v>2121</v>
       </c>
       <c r="B2121">
-        <v>99.46303524296469</v>
+        <v>99.46303524296468</v>
       </c>
     </row>
     <row r="2122" spans="1:2">
@@ -17343,7 +17343,7 @@
         <v>2125</v>
       </c>
       <c r="B2125">
-        <v>566.2279002456522</v>
+        <v>566.2279002456521</v>
       </c>
     </row>
     <row r="2126" spans="1:2">
@@ -17367,7 +17367,7 @@
         <v>2128</v>
       </c>
       <c r="B2128">
-        <v>645.3101893180296</v>
+        <v>645.3101893180295</v>
       </c>
     </row>
     <row r="2129" spans="1:2">
@@ -17735,7 +17735,7 @@
         <v>2174</v>
       </c>
       <c r="B2174">
-        <v>355.0878011524726</v>
+        <v>355.0878011524725</v>
       </c>
     </row>
     <row r="2175" spans="1:2">
@@ -17935,7 +17935,7 @@
         <v>2199</v>
       </c>
       <c r="B2199">
-        <v>699.1473391201188</v>
+        <v>699.1473391201187</v>
       </c>
     </row>
     <row r="2200" spans="1:2">
@@ -17951,7 +17951,7 @@
         <v>2201</v>
       </c>
       <c r="B2201">
-        <v>693.6229500413524</v>
+        <v>693.6229500413523</v>
       </c>
     </row>
     <row r="2202" spans="1:2">
@@ -17983,7 +17983,7 @@
         <v>2205</v>
       </c>
       <c r="B2205">
-        <v>446.0101601867684</v>
+        <v>446.0101601867683</v>
       </c>
     </row>
     <row r="2206" spans="1:2">
@@ -18079,7 +18079,7 @@
         <v>2217</v>
       </c>
       <c r="B2217">
-        <v>574.3547601477313</v>
+        <v>574.3547601477312</v>
       </c>
     </row>
     <row r="2218" spans="1:2">
@@ -18095,7 +18095,7 @@
         <v>2219</v>
       </c>
       <c r="B2219">
-        <v>846.0110980140921</v>
+        <v>846.011098014092</v>
       </c>
     </row>
     <row r="2220" spans="1:2">
@@ -18279,7 +18279,7 @@
         <v>2242</v>
       </c>
       <c r="B2242">
-        <v>1000.691061509164</v>
+        <v>1000.691061509163</v>
       </c>
     </row>
     <row r="2243" spans="1:2">
@@ -18455,7 +18455,7 @@
         <v>2264</v>
       </c>
       <c r="B2264">
-        <v>455.520315391329</v>
+        <v>455.5203153913289</v>
       </c>
     </row>
     <row r="2265" spans="1:2">
@@ -18519,7 +18519,7 @@
         <v>2272</v>
       </c>
       <c r="B2272">
-        <v>677.4893893630453</v>
+        <v>677.4893893630452</v>
       </c>
     </row>
     <row r="2273" spans="1:2">
@@ -18535,7 +18535,7 @@
         <v>2274</v>
       </c>
       <c r="B2274">
-        <v>426.5854117442944</v>
+        <v>426.5854117442943</v>
       </c>
     </row>
     <row r="2275" spans="1:2">
@@ -18639,7 +18639,7 @@
         <v>2287</v>
       </c>
       <c r="B2287">
-        <v>202.5238105565361</v>
+        <v>202.523810556536</v>
       </c>
     </row>
     <row r="2288" spans="1:2">
@@ -18951,7 +18951,7 @@
         <v>2326</v>
       </c>
       <c r="B2326">
-        <v>336.653632820674</v>
+        <v>336.6536328206739</v>
       </c>
     </row>
     <row r="2327" spans="1:2">
@@ -19055,7 +19055,7 @@
         <v>2339</v>
       </c>
       <c r="B2339">
-        <v>202.2190166763283</v>
+        <v>202.2190166763282</v>
       </c>
     </row>
     <row r="2340" spans="1:2">
@@ -19111,7 +19111,7 @@
         <v>2346</v>
       </c>
       <c r="B2346">
-        <v>437.1008006114635</v>
+        <v>437.1008006114634</v>
       </c>
     </row>
     <row r="2347" spans="1:2">
@@ -19671,7 +19671,7 @@
         <v>2416</v>
       </c>
       <c r="B2416">
-        <v>533.9431946267184</v>
+        <v>533.9431946267183</v>
       </c>
     </row>
     <row r="2417" spans="1:2">
@@ -19863,7 +19863,7 @@
         <v>2440</v>
       </c>
       <c r="B2440">
-        <v>843.7192824917604</v>
+        <v>843.7192824917603</v>
       </c>
     </row>
     <row r="2441" spans="1:2">
@@ -19871,7 +19871,7 @@
         <v>2441</v>
       </c>
       <c r="B2441">
-        <v>869.9462097415642</v>
+        <v>869.9462097415641</v>
       </c>
     </row>
     <row r="2442" spans="1:2">
@@ -20031,7 +20031,7 @@
         <v>2461</v>
       </c>
       <c r="B2461">
-        <v>656.4439580767742</v>
+        <v>656.443958076774</v>
       </c>
     </row>
     <row r="2462" spans="1:2">
@@ -20391,7 +20391,7 @@
         <v>2506</v>
       </c>
       <c r="B2506">
-        <v>99.24909338474193</v>
+        <v>99.2490933847419</v>
       </c>
     </row>
     <row r="2507" spans="1:2">
@@ -20591,7 +20591,7 @@
         <v>2531</v>
       </c>
       <c r="B2531">
-        <v>709.1645072215636</v>
+        <v>709.1645072215634</v>
       </c>
     </row>
     <row r="2532" spans="1:2">
@@ -20615,7 +20615,7 @@
         <v>2534</v>
       </c>
       <c r="B2534">
-        <v>910.1936554809269</v>
+        <v>910.1936554809266</v>
       </c>
     </row>
     <row r="2535" spans="1:2">
@@ -21031,7 +21031,7 @@
         <v>2586</v>
       </c>
       <c r="B2586">
-        <v>233.0380740309167</v>
+        <v>233.0380740309166</v>
       </c>
     </row>
     <row r="2587" spans="1:2">
@@ -21255,7 +21255,7 @@
         <v>2614</v>
       </c>
       <c r="B2614">
-        <v>82.30196750311096</v>
+        <v>82.30196750311094</v>
       </c>
     </row>
     <row r="2615" spans="1:2">
@@ -21407,7 +21407,7 @@
         <v>2633</v>
       </c>
       <c r="B2633">
-        <v>644.6976708472274</v>
+        <v>644.6976708472273</v>
       </c>
     </row>
     <row r="2634" spans="1:2">
@@ -21783,7 +21783,7 @@
         <v>2680</v>
       </c>
       <c r="B2680">
-        <v>456.5548561578036</v>
+        <v>456.5548561578035</v>
       </c>
     </row>
     <row r="2681" spans="1:2">
@@ -22287,7 +22287,7 @@
         <v>2743</v>
       </c>
       <c r="B2743">
-        <v>90.57975899010066</v>
+        <v>90.57975899010064</v>
       </c>
     </row>
     <row r="2744" spans="1:2">
@@ -22687,7 +22687,7 @@
         <v>2793</v>
       </c>
       <c r="B2793">
-        <v>675.7778544972631</v>
+        <v>675.777854497263</v>
       </c>
     </row>
     <row r="2794" spans="1:2">
@@ -22719,7 +22719,7 @@
         <v>2797</v>
       </c>
       <c r="B2797">
-        <v>538.0667041406836</v>
+        <v>538.0667041406834</v>
       </c>
     </row>
     <row r="2798" spans="1:2">
@@ -22823,7 +22823,7 @@
         <v>2810</v>
       </c>
       <c r="B2810">
-        <v>422.350535235638</v>
+        <v>422.3505352356379</v>
       </c>
     </row>
     <row r="2811" spans="1:2">
@@ -22831,7 +22831,7 @@
         <v>2811</v>
       </c>
       <c r="B2811">
-        <v>745.7046043218601</v>
+        <v>745.70460432186</v>
       </c>
     </row>
     <row r="2812" spans="1:2">
@@ -22855,7 +22855,7 @@
         <v>2814</v>
       </c>
       <c r="B2814">
-        <v>476.9027783720608</v>
+        <v>476.9027783720607</v>
       </c>
     </row>
     <row r="2815" spans="1:2">
@@ -22879,7 +22879,7 @@
         <v>2817</v>
       </c>
       <c r="B2817">
-        <v>596.9944978843203</v>
+        <v>596.9944978843201</v>
       </c>
     </row>
     <row r="2818" spans="1:2">
@@ -23063,7 +23063,7 @@
         <v>2840</v>
       </c>
       <c r="B2840">
-        <v>212.0805640562439</v>
+        <v>212.0805640562438</v>
       </c>
     </row>
     <row r="2841" spans="1:2">
@@ -23143,7 +23143,7 @@
         <v>2850</v>
       </c>
       <c r="B2850">
-        <v>817.3428890122393</v>
+        <v>817.3428890122392</v>
       </c>
     </row>
     <row r="2851" spans="1:2">
@@ -23167,7 +23167,7 @@
         <v>2853</v>
       </c>
       <c r="B2853">
-        <v>79.25989012180619</v>
+        <v>79.25989012180618</v>
       </c>
     </row>
     <row r="2854" spans="1:2">
@@ -23271,7 +23271,7 @@
         <v>2866</v>
       </c>
       <c r="B2866">
-        <v>933.9793009786816</v>
+        <v>933.9793009786814</v>
       </c>
     </row>
     <row r="2867" spans="1:2">
@@ -23343,7 +23343,7 @@
         <v>2875</v>
       </c>
       <c r="B2875">
-        <v>672.4280525253639</v>
+        <v>672.4280525253638</v>
       </c>
     </row>
     <row r="2876" spans="1:2">
@@ -23351,7 +23351,7 @@
         <v>2876</v>
       </c>
       <c r="B2876">
-        <v>532.4690473022519</v>
+        <v>532.4690473022517</v>
       </c>
     </row>
     <row r="2877" spans="1:2">
@@ -23495,7 +23495,7 @@
         <v>2894</v>
       </c>
       <c r="B2894">
-        <v>993.220680733686</v>
+        <v>993.2206807336858</v>
       </c>
     </row>
     <row r="2895" spans="1:2">
@@ -23511,7 +23511,7 @@
         <v>2896</v>
       </c>
       <c r="B2896">
-        <v>995.1109889330515</v>
+        <v>995.1109889330514</v>
       </c>
     </row>
     <row r="2897" spans="1:2">
@@ -23527,7 +23527,7 @@
         <v>2898</v>
       </c>
       <c r="B2898">
-        <v>672.055852306264</v>
+        <v>672.0558523062639</v>
       </c>
     </row>
     <row r="2899" spans="1:2">
@@ -23591,7 +23591,7 @@
         <v>2906</v>
       </c>
       <c r="B2906">
-        <v>697.0313662209838</v>
+        <v>697.0313662209837</v>
       </c>
     </row>
     <row r="2907" spans="1:2">
@@ -23647,7 +23647,7 @@
         <v>2913</v>
       </c>
       <c r="B2913">
-        <v>1867.211270808777</v>
+        <v>1867.211270808776</v>
       </c>
     </row>
     <row r="2914" spans="1:2">
@@ -23759,7 +23759,7 @@
         <v>2927</v>
       </c>
       <c r="B2927">
-        <v>1762.21857120835</v>
+        <v>1762.218571208349</v>
       </c>
     </row>
     <row r="2928" spans="1:2">
@@ -23847,7 +23847,7 @@
         <v>2938</v>
       </c>
       <c r="B2938">
-        <v>456.2061016217966</v>
+        <v>456.2061016217965</v>
       </c>
     </row>
     <row r="2939" spans="1:2">
@@ -23871,7 +23871,7 @@
         <v>2941</v>
       </c>
       <c r="B2941">
-        <v>699.1004477539329</v>
+        <v>699.1004477539328</v>
       </c>
     </row>
     <row r="2942" spans="1:2">
@@ -23935,7 +23935,7 @@
         <v>2949</v>
       </c>
       <c r="B2949">
-        <v>78.6412171591921</v>
+        <v>78.64121715919208</v>
       </c>
     </row>
     <row r="2950" spans="1:2">
@@ -24031,7 +24031,7 @@
         <v>2961</v>
       </c>
       <c r="B2961">
-        <v>258.2498032027976</v>
+        <v>258.2498032027975</v>
       </c>
     </row>
     <row r="2962" spans="1:2">
@@ -24071,7 +24071,7 @@
         <v>2966</v>
       </c>
       <c r="B2966">
-        <v>425.1493636548538</v>
+        <v>425.1493636548537</v>
       </c>
     </row>
     <row r="2967" spans="1:2">
@@ -24095,7 +24095,7 @@
         <v>2969</v>
       </c>
       <c r="B2969">
-        <v>237.6691825838433</v>
+        <v>237.6691825838432</v>
       </c>
     </row>
     <row r="2970" spans="1:2">
@@ -24231,7 +24231,7 @@
         <v>2986</v>
       </c>
       <c r="B2986">
-        <v>455.6404745171802</v>
+        <v>455.6404745171801</v>
       </c>
     </row>
     <row r="2987" spans="1:2">
@@ -24247,7 +24247,7 @@
         <v>2988</v>
       </c>
       <c r="B2988">
-        <v>654.7148389486722</v>
+        <v>654.7148389486721</v>
       </c>
     </row>
     <row r="2989" spans="1:2">
@@ -24255,7 +24255,7 @@
         <v>2989</v>
       </c>
       <c r="B2989">
-        <v>843.9566700330761</v>
+        <v>843.956670033076</v>
       </c>
     </row>
     <row r="2990" spans="1:2">
@@ -24279,7 +24279,7 @@
         <v>2992</v>
       </c>
       <c r="B2992">
-        <v>992.666776470616</v>
+        <v>992.6667764706158</v>
       </c>
     </row>
     <row r="2993" spans="1:2">
@@ -24287,7 +24287,7 @@
         <v>2993</v>
       </c>
       <c r="B2993">
-        <v>994.9292848890816</v>
+        <v>994.9292848890814</v>
       </c>
     </row>
     <row r="2994" spans="1:2">
@@ -24343,7 +24343,7 @@
         <v>3000</v>
       </c>
       <c r="B3000">
-        <v>82.35032422449008</v>
+        <v>82.35032422449007</v>
       </c>
     </row>
     <row r="3001" spans="1:2">
@@ -24407,7 +24407,7 @@
         <v>3008</v>
       </c>
       <c r="B3008">
-        <v>950.200782968587</v>
+        <v>950.2007829685869</v>
       </c>
     </row>
     <row r="3009" spans="1:2">
@@ -24543,7 +24543,7 @@
         <v>3025</v>
       </c>
       <c r="B3025">
-        <v>1074.34860565592</v>
+        <v>1074.348605655919</v>
       </c>
     </row>
     <row r="3026" spans="1:2">
@@ -24551,7 +24551,7 @@
         <v>3026</v>
       </c>
       <c r="B3026">
-        <v>672.6507865147465</v>
+        <v>672.6507865147464</v>
       </c>
     </row>
     <row r="3027" spans="1:2">
@@ -24567,7 +24567,7 @@
         <v>3028</v>
       </c>
       <c r="B3028">
-        <v>814.2334052920424</v>
+        <v>814.2334052920423</v>
       </c>
     </row>
     <row r="3029" spans="1:2">
@@ -24687,7 +24687,7 @@
         <v>3043</v>
       </c>
       <c r="B3043">
-        <v>1839.530711207213</v>
+        <v>1839.530711207212</v>
       </c>
     </row>
     <row r="3044" spans="1:2">
@@ -24895,7 +24895,7 @@
         <v>3069</v>
       </c>
       <c r="B3069">
-        <v>695.900112011751</v>
+        <v>695.9001120117509</v>
       </c>
     </row>
     <row r="3070" spans="1:2">
@@ -24919,7 +24919,7 @@
         <v>3072</v>
       </c>
       <c r="B3072">
-        <v>820.2179159015071</v>
+        <v>820.217915901507</v>
       </c>
     </row>
     <row r="3073" spans="1:2">
@@ -24943,7 +24943,7 @@
         <v>3075</v>
       </c>
       <c r="B3075">
-        <v>693.9072289488539</v>
+        <v>693.9072289488538</v>
       </c>
     </row>
     <row r="3076" spans="1:2">
@@ -24967,7 +24967,7 @@
         <v>3078</v>
       </c>
       <c r="B3078">
-        <v>867.7130084269647</v>
+        <v>867.7130084269646</v>
       </c>
     </row>
     <row r="3079" spans="1:2">
@@ -24975,7 +24975,7 @@
         <v>3079</v>
       </c>
       <c r="B3079">
-        <v>867.847821104749</v>
+        <v>867.8478211047488</v>
       </c>
     </row>
     <row r="3080" spans="1:2">
@@ -25183,7 +25183,7 @@
         <v>3105</v>
       </c>
       <c r="B3105">
-        <v>1451.343466948328</v>
+        <v>1451.343466948327</v>
       </c>
     </row>
     <row r="3106" spans="1:2">
@@ -25383,7 +25383,7 @@
         <v>3130</v>
       </c>
       <c r="B3130">
-        <v>698.5348206493165</v>
+        <v>698.5348206493164</v>
       </c>
     </row>
     <row r="3131" spans="1:2">
@@ -25455,7 +25455,7 @@
         <v>3139</v>
       </c>
       <c r="B3139">
-        <v>518.7767683759938</v>
+        <v>518.7767683759937</v>
       </c>
     </row>
     <row r="3140" spans="1:2">
@@ -25527,7 +25527,7 @@
         <v>3148</v>
       </c>
       <c r="B3148">
-        <v>344.8918597174444</v>
+        <v>344.8918597174443</v>
       </c>
     </row>
     <row r="3149" spans="1:2">
@@ -25551,7 +25551,7 @@
         <v>3151</v>
       </c>
       <c r="B3151">
-        <v>677.325269581395</v>
+        <v>677.3252695813949</v>
       </c>
     </row>
     <row r="3152" spans="1:2">
@@ -25975,7 +25975,7 @@
         <v>3204</v>
       </c>
       <c r="B3204">
-        <v>655.8167860540389</v>
+        <v>655.8167860540387</v>
       </c>
     </row>
     <row r="3205" spans="1:2">
@@ -25983,7 +25983,7 @@
         <v>3205</v>
       </c>
       <c r="B3205">
-        <v>644.5042439617109</v>
+        <v>644.5042439617108</v>
       </c>
     </row>
     <row r="3206" spans="1:2">
@@ -26015,7 +26015,7 @@
         <v>3209</v>
       </c>
       <c r="B3209">
-        <v>308.0674837096464</v>
+        <v>308.0674837096463</v>
       </c>
     </row>
     <row r="3210" spans="1:2">
@@ -26175,7 +26175,7 @@
         <v>3229</v>
       </c>
       <c r="B3229">
-        <v>916.9518736324574</v>
+        <v>916.9518736324573</v>
       </c>
     </row>
     <row r="3230" spans="1:2">
@@ -26183,7 +26183,7 @@
         <v>3230</v>
       </c>
       <c r="B3230">
-        <v>908.8074294680586</v>
+        <v>908.8074294680584</v>
       </c>
     </row>
     <row r="3231" spans="1:2">
@@ -26335,7 +26335,7 @@
         <v>3249</v>
       </c>
       <c r="B3249">
-        <v>952.6743025348889</v>
+        <v>952.6743025348886</v>
       </c>
     </row>
     <row r="3250" spans="1:2">
@@ -26367,7 +26367,7 @@
         <v>3253</v>
       </c>
       <c r="B3253">
-        <v>1399.809855510117</v>
+        <v>1399.809855510116</v>
       </c>
     </row>
     <row r="3254" spans="1:2">
@@ -26567,7 +26567,7 @@
         <v>3278</v>
       </c>
       <c r="B3278">
-        <v>2009.68775625399</v>
+        <v>2009.687756253989</v>
       </c>
     </row>
     <row r="3279" spans="1:2">
@@ -26679,7 +26679,7 @@
         <v>3292</v>
       </c>
       <c r="B3292">
-        <v>1364.266199941269</v>
+        <v>1364.266199941268</v>
       </c>
     </row>
     <row r="3293" spans="1:2">
@@ -26975,7 +26975,7 @@
         <v>3329</v>
       </c>
       <c r="B3329">
-        <v>435.0991254174065</v>
+        <v>435.0991254174064</v>
       </c>
     </row>
     <row r="3330" spans="1:2">
@@ -26983,7 +26983,7 @@
         <v>3330</v>
       </c>
       <c r="B3330">
-        <v>337.1078929305991</v>
+        <v>337.107892930599</v>
       </c>
     </row>
     <row r="3331" spans="1:2">
@@ -27359,7 +27359,7 @@
         <v>3377</v>
       </c>
       <c r="B3377">
-        <v>346.4392748015763</v>
+        <v>346.4392748015762</v>
       </c>
     </row>
     <row r="3378" spans="1:2">
@@ -27687,7 +27687,7 @@
         <v>3418</v>
       </c>
       <c r="B3418">
-        <v>844.4490293780271</v>
+        <v>844.449029378027</v>
       </c>
     </row>
     <row r="3419" spans="1:2">
@@ -27767,7 +27767,7 @@
         <v>3428</v>
       </c>
       <c r="B3428">
-        <v>402.0934650433658</v>
+        <v>402.0934650433657</v>
       </c>
     </row>
     <row r="3429" spans="1:2">
@@ -27775,7 +27775,7 @@
         <v>3429</v>
       </c>
       <c r="B3429">
-        <v>339.9653355575472</v>
+        <v>339.9653355575471</v>
       </c>
     </row>
     <row r="3430" spans="1:2">
@@ -27783,7 +27783,7 @@
         <v>3430</v>
       </c>
       <c r="B3430">
-        <v>235.8691402643853</v>
+        <v>235.8691402643852</v>
       </c>
     </row>
     <row r="3431" spans="1:2">
@@ -27823,7 +27823,7 @@
         <v>3435</v>
       </c>
       <c r="B3435">
-        <v>99.36427030293582</v>
+        <v>99.36427030293579</v>
       </c>
     </row>
     <row r="3436" spans="1:2">
@@ -28087,7 +28087,7 @@
         <v>3468</v>
       </c>
       <c r="B3468">
-        <v>1726.941610284684</v>
+        <v>1726.941610284683</v>
       </c>
     </row>
     <row r="3469" spans="1:2">
@@ -28119,7 +28119,7 @@
         <v>3472</v>
       </c>
       <c r="B3472">
-        <v>2041.09324875694</v>
+        <v>2041.093248756939</v>
       </c>
     </row>
     <row r="3473" spans="1:2">
@@ -28135,7 +28135,7 @@
         <v>3474</v>
       </c>
       <c r="B3474">
-        <v>1841.344820936527</v>
+        <v>1841.344820936526</v>
       </c>
     </row>
     <row r="3475" spans="1:2">
@@ -28151,7 +28151,7 @@
         <v>3476</v>
       </c>
       <c r="B3476">
-        <v>1114.566744291416</v>
+        <v>1114.566744291415</v>
       </c>
     </row>
     <row r="3477" spans="1:2">
@@ -28527,7 +28527,7 @@
         <v>3523</v>
       </c>
       <c r="B3523">
-        <v>1823.511448233984</v>
+        <v>1823.511448233983</v>
       </c>
     </row>
     <row r="3524" spans="1:2">
@@ -28583,7 +28583,7 @@
         <v>3530</v>
       </c>
       <c r="B3530">
-        <v>1693.900781386004</v>
+        <v>1693.900781386003</v>
       </c>
     </row>
     <row r="3531" spans="1:2">
@@ -28775,7 +28775,7 @@
         <v>3554</v>
       </c>
       <c r="B3554">
-        <v>1329.944650603639</v>
+        <v>1329.944650603638</v>
       </c>
     </row>
     <row r="3555" spans="1:2">
@@ -28783,7 +28783,7 @@
         <v>3555</v>
       </c>
       <c r="B3555">
-        <v>1666.513292823101</v>
+        <v>1666.5132928231</v>
       </c>
     </row>
     <row r="3556" spans="1:2">
@@ -28847,7 +28847,7 @@
         <v>3563</v>
       </c>
       <c r="B3563">
-        <v>2566.593066759825</v>
+        <v>2566.593066759824</v>
       </c>
     </row>
     <row r="3564" spans="1:2">
@@ -29103,7 +29103,7 @@
         <v>3595</v>
       </c>
       <c r="B3595">
-        <v>2305.519524099525</v>
+        <v>2305.519524099524</v>
       </c>
     </row>
     <row r="3596" spans="1:2">
@@ -29183,7 +29183,7 @@
         <v>3605</v>
       </c>
       <c r="B3605">
-        <v>1847.23554881362</v>
+        <v>1847.235548813619</v>
       </c>
     </row>
     <row r="3606" spans="1:2">
@@ -29431,7 +29431,7 @@
         <v>3636</v>
       </c>
       <c r="B3636">
-        <v>2367.940724624005</v>
+        <v>2367.940724624004</v>
       </c>
     </row>
     <row r="3637" spans="1:2">
@@ -29479,7 +29479,7 @@
         <v>3642</v>
       </c>
       <c r="B3642">
-        <v>1843.578022251126</v>
+        <v>1843.578022251125</v>
       </c>
     </row>
     <row r="3643" spans="1:2">
@@ -29543,7 +29543,7 @@
         <v>3650</v>
       </c>
       <c r="B3650">
-        <v>924.096945555021</v>
+        <v>924.0969455550209</v>
       </c>
     </row>
     <row r="3651" spans="1:2">
@@ -29559,7 +29559,7 @@
         <v>3652</v>
       </c>
       <c r="B3652">
-        <v>639.2055195827138</v>
+        <v>639.2055195827137</v>
       </c>
     </row>
     <row r="3653" spans="1:2">
@@ -29599,7 +29599,7 @@
         <v>3657</v>
       </c>
       <c r="B3657">
-        <v>666.3409670523678</v>
+        <v>666.3409670523677</v>
       </c>
     </row>
     <row r="3658" spans="1:2">
@@ -29639,7 +29639,7 @@
         <v>3662</v>
       </c>
       <c r="B3662">
-        <v>1091.96803650024</v>
+        <v>1091.968036500239</v>
       </c>
     </row>
     <row r="3663" spans="1:2">
@@ -29671,7 +29671,7 @@
         <v>3666</v>
       </c>
       <c r="B3666">
-        <v>992.1773478360516</v>
+        <v>992.1773478360514</v>
       </c>
     </row>
     <row r="3667" spans="1:2">
@@ -29799,7 +29799,7 @@
         <v>3682</v>
       </c>
       <c r="B3682">
-        <v>839.4931981142638</v>
+        <v>839.4931981142637</v>
       </c>
     </row>
     <row r="3683" spans="1:2">
@@ -29879,7 +29879,7 @@
         <v>3692</v>
       </c>
       <c r="B3692">
-        <v>614.2739663237932</v>
+        <v>614.273966323793</v>
       </c>
     </row>
     <row r="3693" spans="1:2">
@@ -30055,7 +30055,7 @@
         <v>3714</v>
       </c>
       <c r="B3714">
-        <v>1504.506553361496</v>
+        <v>1504.506553361495</v>
       </c>
     </row>
     <row r="3715" spans="1:2">
@@ -30063,7 +30063,7 @@
         <v>3715</v>
       </c>
       <c r="B3715">
-        <v>1299.011002472934</v>
+        <v>1299.011002472933</v>
       </c>
     </row>
     <row r="3716" spans="1:2">
@@ -30175,7 +30175,7 @@
         <v>3729</v>
       </c>
       <c r="B3729">
-        <v>1254.953633230974</v>
+        <v>1254.953633230973</v>
       </c>
     </row>
     <row r="3730" spans="1:2">
@@ -30191,7 +30191,7 @@
         <v>3731</v>
       </c>
       <c r="B3731">
-        <v>1925.142623020965</v>
+        <v>1925.142623020964</v>
       </c>
     </row>
     <row r="3732" spans="1:2">
@@ -30207,7 +30207,7 @@
         <v>3733</v>
       </c>
       <c r="B3733">
-        <v>1900.940816648311</v>
+        <v>1900.94081664831</v>
       </c>
     </row>
     <row r="3734" spans="1:2">
@@ -30383,7 +30383,7 @@
         <v>3755</v>
       </c>
       <c r="B3755">
-        <v>2546.32134301562</v>
+        <v>2546.321343015619</v>
       </c>
     </row>
     <row r="3756" spans="1:2">
@@ -30575,7 +30575,7 @@
         <v>3779</v>
       </c>
       <c r="B3779">
-        <v>3226.448371726617</v>
+        <v>3226.448371726616</v>
       </c>
     </row>
     <row r="3780" spans="1:2">
@@ -30599,7 +30599,7 @@
         <v>3782</v>
       </c>
       <c r="B3782">
-        <v>3298.543847237308</v>
+        <v>3298.543847237307</v>
       </c>
     </row>
     <row r="3783" spans="1:2">
@@ -30607,7 +30607,7 @@
         <v>3783</v>
       </c>
       <c r="B3783">
-        <v>2994.248187795233</v>
+        <v>2994.248187795232</v>
       </c>
     </row>
     <row r="3784" spans="1:2">
@@ -30615,7 +30615,7 @@
         <v>3784</v>
       </c>
       <c r="B3784">
-        <v>3020.331510236093</v>
+        <v>3020.331510236092</v>
       </c>
     </row>
     <row r="3785" spans="1:2">
@@ -30703,7 +30703,7 @@
         <v>3795</v>
       </c>
       <c r="B3795">
-        <v>2109.668941093308</v>
+        <v>2109.668941093307</v>
       </c>
     </row>
     <row r="3796" spans="1:2">
@@ -30855,7 +30855,7 @@
         <v>3814</v>
       </c>
       <c r="B3814">
-        <v>585.99554180336</v>
+        <v>585.9955418033599</v>
       </c>
     </row>
     <row r="3815" spans="1:2">
@@ -31039,7 +31039,7 @@
         <v>3837</v>
       </c>
       <c r="B3837">
-        <v>556.418812581657</v>
+        <v>556.4188125816569</v>
       </c>
     </row>
     <row r="3838" spans="1:2">
@@ -31055,7 +31055,7 @@
         <v>3839</v>
       </c>
       <c r="B3839">
-        <v>476.1144172780618</v>
+        <v>476.1144172780617</v>
       </c>
     </row>
     <row r="3840" spans="1:2">
@@ -31175,7 +31175,7 @@
         <v>3854</v>
       </c>
       <c r="B3854">
-        <v>1482.004559013078</v>
+        <v>1482.004559013077</v>
       </c>
     </row>
     <row r="3855" spans="1:2">
@@ -31535,7 +31535,7 @@
         <v>3899</v>
       </c>
       <c r="B3899">
-        <v>2214.954711732396</v>
+        <v>2214.954711732395</v>
       </c>
     </row>
     <row r="3900" spans="1:2">
@@ -31583,7 +31583,7 @@
         <v>3905</v>
       </c>
       <c r="B3905">
-        <v>2639.526725441087</v>
+        <v>2639.526725441086</v>
       </c>
     </row>
     <row r="3906" spans="1:2">
@@ -31823,7 +31823,7 @@
         <v>3935</v>
       </c>
       <c r="B3935">
-        <v>2307.301396014586</v>
+        <v>2307.301396014585</v>
       </c>
     </row>
     <row r="3936" spans="1:2">
@@ -31975,7 +31975,7 @@
         <v>3954</v>
       </c>
       <c r="B3954">
-        <v>3653.687331887126</v>
+        <v>3653.687331887125</v>
       </c>
     </row>
     <row r="3955" spans="1:2">
@@ -31983,7 +31983,7 @@
         <v>3955</v>
       </c>
       <c r="B3955">
-        <v>3239.665875570244</v>
+        <v>3239.665875570243</v>
       </c>
     </row>
     <row r="3956" spans="1:2">
@@ -32039,7 +32039,7 @@
         <v>3962</v>
       </c>
       <c r="B3962">
-        <v>2680.363243968159</v>
+        <v>2680.363243968158</v>
       </c>
     </row>
     <row r="3963" spans="1:2">
@@ -32079,7 +32079,7 @@
         <v>3967</v>
       </c>
       <c r="B3967">
-        <v>2986.921411828699</v>
+        <v>2986.921411828698</v>
       </c>
     </row>
     <row r="3968" spans="1:2">
@@ -32103,7 +32103,7 @@
         <v>3970</v>
       </c>
       <c r="B3970">
-        <v>3870.823664431317</v>
+        <v>3870.823664431316</v>
       </c>
     </row>
     <row r="3971" spans="1:2">
@@ -32287,7 +32287,7 @@
         <v>3993</v>
       </c>
       <c r="B3993">
-        <v>3200.306435078025</v>
+        <v>3200.306435078024</v>
       </c>
     </row>
     <row r="3994" spans="1:2">
@@ -32367,7 +32367,7 @@
         <v>4003</v>
       </c>
       <c r="B4003">
-        <v>2303.459234697736</v>
+        <v>2303.459234697735</v>
       </c>
     </row>
     <row r="4004" spans="1:2">
@@ -32471,7 +32471,7 @@
         <v>4016</v>
       </c>
       <c r="B4016">
-        <v>2087.908416472703</v>
+        <v>2087.908416472702</v>
       </c>
     </row>
     <row r="4017" spans="1:2">
@@ -32519,7 +32519,7 @@
         <v>4022</v>
       </c>
       <c r="B4022">
-        <v>2493.653546657789</v>
+        <v>2493.653546657788</v>
       </c>
     </row>
     <row r="4023" spans="1:2">
@@ -32863,7 +32863,7 @@
         <v>4065</v>
       </c>
       <c r="B4065">
-        <v>2912.89459817323</v>
+        <v>2912.894598173229</v>
       </c>
     </row>
     <row r="4066" spans="1:2">
@@ -33279,7 +33279,7 @@
         <v>4117</v>
       </c>
       <c r="B4117">
-        <v>3474.064092291588</v>
+        <v>3474.064092291587</v>
       </c>
     </row>
     <row r="4118" spans="1:2">
@@ -33983,7 +33983,7 @@
         <v>4205</v>
       </c>
       <c r="B4205">
-        <v>2300.780565404371</v>
+        <v>2300.78056540437</v>
       </c>
     </row>
     <row r="4206" spans="1:2">
@@ -34039,7 +34039,7 @@
         <v>4212</v>
       </c>
       <c r="B4212">
-        <v>2596.805760135423</v>
+        <v>2596.805760135422</v>
       </c>
     </row>
     <row r="4213" spans="1:2">
@@ -34455,7 +34455,7 @@
         <v>4264</v>
       </c>
       <c r="B4264">
-        <v>2373.596995670169</v>
+        <v>2373.596995670168</v>
       </c>
     </row>
     <row r="4265" spans="1:2">
@@ -34487,7 +34487,7 @@
         <v>4268</v>
       </c>
       <c r="B4268">
-        <v>2081.888737338599</v>
+        <v>2081.888737338598</v>
       </c>
     </row>
     <row r="4269" spans="1:2">
@@ -34743,7 +34743,7 @@
         <v>4300</v>
       </c>
       <c r="B4300">
-        <v>2396.995787396891</v>
+        <v>2396.99578739689</v>
       </c>
     </row>
     <row r="4301" spans="1:2">
@@ -34759,7 +34759,7 @@
         <v>4302</v>
       </c>
       <c r="B4302">
-        <v>2498.061335079256</v>
+        <v>2498.061335079255</v>
       </c>
     </row>
     <row r="4303" spans="1:2">
@@ -34863,7 +34863,7 @@
         <v>4315</v>
       </c>
       <c r="B4315">
-        <v>1958.875099570886</v>
+        <v>1958.875099570885</v>
       </c>
     </row>
     <row r="4316" spans="1:2">
@@ -34911,7 +34911,7 @@
         <v>4321</v>
       </c>
       <c r="B4321">
-        <v>1879.986237384025</v>
+        <v>1879.986237384024</v>
       </c>
     </row>
     <row r="4322" spans="1:2">
@@ -34943,7 +34943,7 @@
         <v>4325</v>
       </c>
       <c r="B4325">
-        <v>1801.630764487528</v>
+        <v>1801.630764487527</v>
       </c>
     </row>
     <row r="4326" spans="1:2">
@@ -34967,7 +34967,7 @@
         <v>4328</v>
       </c>
       <c r="B4328">
-        <v>2048.847908439919</v>
+        <v>2048.847908439918</v>
       </c>
     </row>
     <row r="4329" spans="1:2">
@@ -35007,7 +35007,7 @@
         <v>4333</v>
       </c>
       <c r="B4333">
-        <v>3464.363440911897</v>
+        <v>3464.363440911896</v>
       </c>
     </row>
     <row r="4334" spans="1:2">
@@ -35031,7 +35031,7 @@
         <v>4336</v>
       </c>
       <c r="B4336">
-        <v>2789.230342699689</v>
+        <v>2789.230342699688</v>
       </c>
     </row>
     <row r="4337" spans="1:2">
@@ -35263,7 +35263,7 @@
         <v>4365</v>
       </c>
       <c r="B4365">
-        <v>2527.175012059874</v>
+        <v>2527.175012059873</v>
       </c>
     </row>
     <row r="4366" spans="1:2">
@@ -35311,7 +35311,7 @@
         <v>4371</v>
       </c>
       <c r="B4371">
-        <v>2583.315700225841</v>
+        <v>2583.31570022584</v>
       </c>
     </row>
     <row r="4372" spans="1:2">
@@ -35327,7 +35327,7 @@
         <v>4373</v>
       </c>
       <c r="B4373">
-        <v>2582.067217601144</v>
+        <v>2582.067217601143</v>
       </c>
     </row>
     <row r="4374" spans="1:2">
@@ -35455,7 +35455,7 @@
         <v>4389</v>
       </c>
       <c r="B4389">
-        <v>2849.01097316583</v>
+        <v>2849.010973165829</v>
       </c>
     </row>
     <row r="4390" spans="1:2">
@@ -35599,7 +35599,7 @@
         <v>4407</v>
       </c>
       <c r="B4407">
-        <v>3476.086282458351</v>
+        <v>3476.08628245835</v>
       </c>
     </row>
     <row r="4408" spans="1:2">
@@ -35615,7 +35615,7 @@
         <v>4409</v>
       </c>
       <c r="B4409">
-        <v>3283.36276743465</v>
+        <v>3283.362767434649</v>
       </c>
     </row>
     <row r="4410" spans="1:2">
@@ -35623,7 +35623,7 @@
         <v>4410</v>
       </c>
       <c r="B4410">
-        <v>3194.005407746806</v>
+        <v>3194.005407746805</v>
       </c>
     </row>
     <row r="4411" spans="1:2">
@@ -35663,7 +35663,7 @@
         <v>4415</v>
       </c>
       <c r="B4415">
-        <v>2692.865654477452</v>
+        <v>2692.865654477451</v>
       </c>
     </row>
     <row r="4416" spans="1:2">
@@ -35711,7 +35711,7 @@
         <v>4421</v>
       </c>
       <c r="B4421">
-        <v>2389.610397222625</v>
+        <v>2389.610397222624</v>
       </c>
     </row>
     <row r="4422" spans="1:2">
@@ -35799,7 +35799,7 @@
         <v>4432</v>
       </c>
       <c r="B4432">
-        <v>2650.150550592561</v>
+        <v>2650.15055059256</v>
       </c>
     </row>
     <row r="4433" spans="1:2">
@@ -35823,7 +35823,7 @@
         <v>4435</v>
       </c>
       <c r="B4435">
-        <v>2384.311672843628</v>
+        <v>2384.311672843627</v>
       </c>
     </row>
     <row r="4436" spans="1:2">
@@ -35895,7 +35895,7 @@
         <v>4444</v>
       </c>
       <c r="B4444">
-        <v>2349.808419462028</v>
+        <v>2349.808419462027</v>
       </c>
     </row>
     <row r="4445" spans="1:2">
@@ -35911,7 +35911,7 @@
         <v>4446</v>
       </c>
       <c r="B4446">
-        <v>2352.012313672761</v>
+        <v>2352.01231367276</v>
       </c>
     </row>
     <row r="4447" spans="1:2">
@@ -35991,7 +35991,7 @@
         <v>4456</v>
       </c>
       <c r="B4456">
-        <v>3092.544214162248</v>
+        <v>3092.544214162247</v>
       </c>
     </row>
     <row r="4457" spans="1:2">
@@ -36119,7 +36119,7 @@
         <v>4472</v>
       </c>
       <c r="B4472">
-        <v>2803.461872337084</v>
+        <v>2803.461872337083</v>
       </c>
     </row>
     <row r="4473" spans="1:2">
@@ -36311,7 +36311,7 @@
         <v>4496</v>
       </c>
       <c r="B4496">
-        <v>3190.781626321531</v>
+        <v>3190.78162632153</v>
       </c>
     </row>
     <row r="4497" spans="1:2">
@@ -36391,7 +36391,7 @@
         <v>4506</v>
       </c>
       <c r="B4506">
-        <v>3192.510745449633</v>
+        <v>3192.510745449632</v>
       </c>
     </row>
     <row r="4507" spans="1:2">
@@ -36631,7 +36631,7 @@
         <v>4536</v>
       </c>
       <c r="B4536">
-        <v>2336.986561520594</v>
+        <v>2336.986561520593</v>
       </c>
     </row>
     <row r="4537" spans="1:2">
@@ -36903,7 +36903,7 @@
         <v>4570</v>
       </c>
       <c r="B4570">
-        <v>2034.337961315796</v>
+        <v>2034.337961315795</v>
       </c>
     </row>
     <row r="4571" spans="1:2">
@@ -36927,7 +36927,7 @@
         <v>4573</v>
       </c>
       <c r="B4573">
-        <v>2033.561323063343</v>
+        <v>2033.561323063342</v>
       </c>
     </row>
     <row r="4574" spans="1:2">
@@ -37031,7 +37031,7 @@
         <v>4586</v>
       </c>
       <c r="B4586">
-        <v>1611.13752006804</v>
+        <v>1611.137520068039</v>
       </c>
     </row>
     <row r="4587" spans="1:2">
@@ -37071,7 +37071,7 @@
         <v>4591</v>
       </c>
       <c r="B4591">
-        <v>2526.342690310076</v>
+        <v>2526.342690310075</v>
       </c>
     </row>
     <row r="4592" spans="1:2">
@@ -37095,7 +37095,7 @@
         <v>4594</v>
       </c>
       <c r="B4594">
-        <v>2179.657235836024</v>
+        <v>2179.657235836023</v>
       </c>
     </row>
     <row r="4595" spans="1:2">
@@ -37263,7 +37263,7 @@
         <v>4615</v>
       </c>
       <c r="B4615">
-        <v>2221.00076725998</v>
+        <v>2221.000767259979</v>
       </c>
     </row>
     <row r="4616" spans="1:2">
@@ -37335,7 +37335,7 @@
         <v>4624</v>
       </c>
       <c r="B4624">
-        <v>2379.018809885404</v>
+        <v>2379.018809885403</v>
       </c>
     </row>
     <row r="4625" spans="1:2">
@@ -37343,7 +37343,7 @@
         <v>4625</v>
       </c>
       <c r="B4625">
-        <v>2453.649349880516</v>
+        <v>2453.649349880515</v>
       </c>
     </row>
     <row r="4626" spans="1:2">
@@ -37447,7 +37447,7 @@
         <v>4638</v>
       </c>
       <c r="B4638">
-        <v>2960.07610468732</v>
+        <v>2960.076104687319</v>
       </c>
     </row>
     <row r="4639" spans="1:2">
@@ -37567,7 +37567,7 @@
         <v>4653</v>
       </c>
       <c r="B4653">
-        <v>2279.084516412272</v>
+        <v>2279.084516412271</v>
       </c>
     </row>
     <row r="4654" spans="1:2">
@@ -37687,7 +37687,7 @@
         <v>4668</v>
       </c>
       <c r="B4668">
-        <v>2416.194871139596</v>
+        <v>2416.194871139595</v>
       </c>
     </row>
     <row r="4669" spans="1:2">
@@ -37703,7 +37703,7 @@
         <v>4670</v>
       </c>
       <c r="B4670">
-        <v>2734.83928863453</v>
+        <v>2734.839288634529</v>
       </c>
     </row>
     <row r="4671" spans="1:2">
@@ -37751,7 +37751,7 @@
         <v>4676</v>
       </c>
       <c r="B4676">
-        <v>2383.810521367517</v>
+        <v>2383.810521367516</v>
       </c>
     </row>
     <row r="4677" spans="1:2">
@@ -37759,7 +37759,7 @@
         <v>4677</v>
       </c>
       <c r="B4677">
-        <v>2236.21408487689</v>
+        <v>2236.214084876889</v>
       </c>
     </row>
     <row r="4678" spans="1:2">
@@ -37863,7 +37863,7 @@
         <v>4690</v>
       </c>
       <c r="B4690">
-        <v>1683.778107710641</v>
+        <v>1683.77810771064</v>
       </c>
     </row>
     <row r="4691" spans="1:2">
@@ -37991,7 +37991,7 @@
         <v>4706</v>
       </c>
       <c r="B4706">
-        <v>947.3140332377728</v>
+        <v>947.3140332377726</v>
       </c>
     </row>
     <row r="4707" spans="1:2">
@@ -38047,7 +38047,7 @@
         <v>4713</v>
       </c>
       <c r="B4713">
-        <v>2654.441110598563</v>
+        <v>2654.441110598562</v>
       </c>
     </row>
     <row r="4714" spans="1:2">
@@ -38111,7 +38111,7 @@
         <v>4721</v>
       </c>
       <c r="B4721">
-        <v>2552.686845975344</v>
+        <v>2552.686845975343</v>
       </c>
     </row>
     <row r="4722" spans="1:2">
@@ -38159,7 +38159,7 @@
         <v>4727</v>
       </c>
       <c r="B4727">
-        <v>1915.377496012769</v>
+        <v>1915.377496012768</v>
       </c>
     </row>
     <row r="4728" spans="1:2">
@@ -38255,7 +38255,7 @@
         <v>4739</v>
       </c>
       <c r="B4739">
-        <v>2661.22863585396</v>
+        <v>2661.228635853959</v>
       </c>
     </row>
     <row r="4740" spans="1:2">
@@ -38303,7 +38303,7 @@
         <v>4745</v>
       </c>
       <c r="B4745">
-        <v>2500.024911038287</v>
+        <v>2500.024911038286</v>
       </c>
     </row>
     <row r="4746" spans="1:2">
@@ -38327,7 +38327,7 @@
         <v>4748</v>
       </c>
       <c r="B4748">
-        <v>2090.587085766068</v>
+        <v>2090.587085766067</v>
       </c>
     </row>
     <row r="4749" spans="1:2">
@@ -38383,7 +38383,7 @@
         <v>4755</v>
       </c>
       <c r="B4755">
-        <v>2431.856587445658</v>
+        <v>2431.856587445657</v>
       </c>
     </row>
     <row r="4756" spans="1:2">
@@ -38455,7 +38455,7 @@
         <v>4764</v>
       </c>
       <c r="B4764">
-        <v>3120.415269938942</v>
+        <v>3120.415269938941</v>
       </c>
     </row>
     <row r="4765" spans="1:2">
@@ -38479,7 +38479,7 @@
         <v>4767</v>
       </c>
       <c r="B4767">
-        <v>3154.763195670052</v>
+        <v>3154.763195670051</v>
       </c>
     </row>
     <row r="4768" spans="1:2">
@@ -38511,7 +38511,7 @@
         <v>4771</v>
       </c>
       <c r="B4771">
-        <v>3190.312712659673</v>
+        <v>3190.312712659672</v>
       </c>
     </row>
     <row r="4772" spans="1:2">
@@ -38607,7 +38607,7 @@
         <v>4783</v>
       </c>
       <c r="B4783">
-        <v>2945.188095923324</v>
+        <v>2945.188095923323</v>
       </c>
     </row>
     <row r="4784" spans="1:2">
@@ -38639,7 +38639,7 @@
         <v>4787</v>
       </c>
       <c r="B4787">
-        <v>3534.085041009431</v>
+        <v>3534.08504100943</v>
       </c>
     </row>
     <row r="4788" spans="1:2">
@@ -38647,7 +38647,7 @@
         <v>4788</v>
       </c>
       <c r="B4788">
-        <v>3811.828464348788</v>
+        <v>3811.828464348787</v>
       </c>
     </row>
     <row r="4789" spans="1:2">
@@ -38823,7 +38823,7 @@
         <v>4810</v>
       </c>
       <c r="B4810">
-        <v>3666.728993107556</v>
+        <v>3666.728993107555</v>
       </c>
     </row>
     <row r="4811" spans="1:2">
@@ -38831,7 +38831,7 @@
         <v>4811</v>
       </c>
       <c r="B4811">
-        <v>3663.036298020423</v>
+        <v>3663.036298020422</v>
       </c>
     </row>
     <row r="4812" spans="1:2">
@@ -38879,7 +38879,7 @@
         <v>4817</v>
       </c>
       <c r="B4817">
-        <v>3903.149399995663</v>
+        <v>3903.149399995662</v>
       </c>
     </row>
     <row r="4818" spans="1:2">
@@ -38903,7 +38903,7 @@
         <v>4820</v>
       </c>
       <c r="B4820">
-        <v>3445.372437606642</v>
+        <v>3445.372437606641</v>
       </c>
     </row>
     <row r="4821" spans="1:2">
@@ -38927,7 +38927,7 @@
         <v>4823</v>
       </c>
       <c r="B4823">
-        <v>3026.515309151847</v>
+        <v>3026.515309151846</v>
       </c>
     </row>
     <row r="4824" spans="1:2">
@@ -39031,7 +39031,7 @@
         <v>4836</v>
       </c>
       <c r="B4836">
-        <v>3619.69109140241</v>
+        <v>3619.691091402409</v>
       </c>
     </row>
     <row r="4837" spans="1:2">
@@ -39055,7 +39055,7 @@
         <v>4839</v>
       </c>
       <c r="B4839">
-        <v>3580.03857987153</v>
+        <v>3580.038579871529</v>
       </c>
     </row>
     <row r="4840" spans="1:2">
@@ -39151,7 +39151,7 @@
         <v>4851</v>
       </c>
       <c r="B4851">
-        <v>2929.121941583909</v>
+        <v>2929.121941583908</v>
       </c>
     </row>
     <row r="4852" spans="1:2">
@@ -39231,7 +39231,7 @@
         <v>4861</v>
       </c>
       <c r="B4861">
-        <v>3270.086649383291</v>
+        <v>3270.08664938329</v>
       </c>
     </row>
     <row r="4862" spans="1:2">
@@ -39271,7 +39271,7 @@
         <v>4866</v>
       </c>
       <c r="B4866">
-        <v>3511.870256278901</v>
+        <v>3511.8702562789</v>
       </c>
     </row>
     <row r="4867" spans="1:2">
@@ -39343,7 +39343,7 @@
         <v>4875</v>
       </c>
       <c r="B4875">
-        <v>2772.586838414111</v>
+        <v>2772.58683841411</v>
       </c>
     </row>
     <row r="4876" spans="1:2">
@@ -39423,7 +39423,7 @@
         <v>4885</v>
       </c>
       <c r="B4885">
-        <v>4085.410278939154</v>
+        <v>4085.410278939153</v>
       </c>
     </row>
     <row r="4886" spans="1:2">
@@ -39463,7 +39463,7 @@
         <v>4890</v>
       </c>
       <c r="B4890">
-        <v>4049.684919326336</v>
+        <v>4049.684919326335</v>
       </c>
     </row>
     <row r="4891" spans="1:2">
@@ -39479,7 +39479,7 @@
         <v>4892</v>
       </c>
       <c r="B4892">
-        <v>2876.122974952391</v>
+        <v>2876.12297495239</v>
       </c>
     </row>
     <row r="4893" spans="1:2">
@@ -39519,7 +39519,7 @@
         <v>4897</v>
       </c>
       <c r="B4897">
-        <v>2818.936023178403</v>
+        <v>2818.936023178402</v>
       </c>
     </row>
     <row r="4898" spans="1:2">
@@ -39599,7 +39599,7 @@
         <v>4907</v>
       </c>
       <c r="B4907">
-        <v>2365.47013576809</v>
+        <v>2365.470135768089</v>
       </c>
     </row>
     <row r="4908" spans="1:2">
@@ -39679,7 +39679,7 @@
         <v>4917</v>
       </c>
       <c r="B4917">
-        <v>2580.018651040901</v>
+        <v>2580.0186510409</v>
       </c>
     </row>
     <row r="4918" spans="1:2">
@@ -39727,7 +39727,7 @@
         <v>4923</v>
       </c>
       <c r="B4923">
-        <v>3103.798142046844</v>
+        <v>3103.798142046843</v>
       </c>
     </row>
     <row r="4924" spans="1:2">
@@ -39775,7 +39775,7 @@
         <v>4929</v>
       </c>
       <c r="B4929">
-        <v>2709.151612095863</v>
+        <v>2709.151612095862</v>
       </c>
     </row>
     <row r="4930" spans="1:2">
@@ -39855,7 +39855,7 @@
         <v>4939</v>
       </c>
       <c r="B4939">
-        <v>3035.74704686968</v>
+        <v>3035.747046869679</v>
       </c>
     </row>
     <row r="4940" spans="1:2">
@@ -39999,7 +39999,7 @@
         <v>4957</v>
       </c>
       <c r="B4957">
-        <v>3814.202339761945</v>
+        <v>3814.202339761944</v>
       </c>
     </row>
     <row r="4958" spans="1:2">
@@ -40039,7 +40039,7 @@
         <v>4962</v>
       </c>
       <c r="B4962">
-        <v>2898.246907660936</v>
+        <v>2898.246907660935</v>
       </c>
     </row>
     <row r="4963" spans="1:2">
@@ -40151,7 +40151,7 @@
         <v>4976</v>
       </c>
       <c r="B4976">
-        <v>1988.375630322537</v>
+        <v>1988.375630322536</v>
       </c>
     </row>
     <row r="4977" spans="1:2">
@@ -40239,7 +40239,7 @@
         <v>4987</v>
       </c>
       <c r="B4987">
-        <v>1761.831717437317</v>
+        <v>1761.831717437316</v>
       </c>
     </row>
     <row r="4988" spans="1:2">
@@ -40271,7 +40271,7 @@
         <v>4991</v>
       </c>
       <c r="B4991">
-        <v>1500.25409259052</v>
+        <v>1500.254092590519</v>
       </c>
     </row>
     <row r="4992" spans="1:2">
@@ -40407,7 +40407,7 @@
         <v>5008</v>
       </c>
       <c r="B5008">
-        <v>2078.500836131674</v>
+        <v>2078.500836131673</v>
       </c>
     </row>
     <row r="5009" spans="1:2">
@@ -40527,7 +40527,7 @@
         <v>5023</v>
       </c>
       <c r="B5023">
-        <v>2244.13286434152</v>
+        <v>2244.132864341519</v>
       </c>
     </row>
     <row r="5024" spans="1:2">
@@ -40559,7 +40559,7 @@
         <v>5027</v>
       </c>
       <c r="B5027">
-        <v>1696.878383138803</v>
+        <v>1696.878383138802</v>
       </c>
     </row>
     <row r="5028" spans="1:2">
@@ -40631,7 +40631,7 @@
         <v>5036</v>
       </c>
       <c r="B5036">
-        <v>1894.481530956215</v>
+        <v>1894.481530956214</v>
       </c>
     </row>
     <row r="5037" spans="1:2">
@@ -40743,7 +40743,7 @@
         <v>5050</v>
       </c>
       <c r="B5050">
-        <v>1845.359894166187</v>
+        <v>1845.359894166186</v>
       </c>
     </row>
     <row r="5051" spans="1:2">
@@ -40943,7 +40943,7 @@
         <v>5075</v>
       </c>
       <c r="B5075">
-        <v>2881.251718128965</v>
+        <v>2881.251718128964</v>
       </c>
     </row>
     <row r="5076" spans="1:2">
@@ -41007,7 +41007,7 @@
         <v>5083</v>
       </c>
       <c r="B5083">
-        <v>2080.757483129366</v>
+        <v>2080.757483129365</v>
       </c>
     </row>
     <row r="5084" spans="1:2">
@@ -41143,7 +41143,7 @@
         <v>5100</v>
       </c>
       <c r="B5100">
-        <v>2762.710344411224</v>
+        <v>2762.710344411223</v>
       </c>
     </row>
     <row r="5101" spans="1:2">
@@ -41151,7 +41151,7 @@
         <v>5101</v>
       </c>
       <c r="B5101">
-        <v>3003.186854474404</v>
+        <v>3003.186854474403</v>
       </c>
     </row>
     <row r="5102" spans="1:2">
@@ -41255,7 +41255,7 @@
         <v>5114</v>
       </c>
       <c r="B5114">
-        <v>2773.814806066102</v>
+        <v>2773.814806066101</v>
       </c>
     </row>
     <row r="5115" spans="1:2">
@@ -41263,7 +41263,7 @@
         <v>5115</v>
       </c>
       <c r="B5115">
-        <v>2898.246907660936</v>
+        <v>2898.246907660935</v>
       </c>
     </row>
     <row r="5116" spans="1:2">
@@ -41279,7 +41279,7 @@
         <v>5117</v>
       </c>
       <c r="B5117">
-        <v>2849.635214478179</v>
+        <v>2849.635214478178</v>
       </c>
     </row>
     <row r="5118" spans="1:2">
@@ -41327,7 +41327,7 @@
         <v>5123</v>
       </c>
       <c r="B5123">
-        <v>3154.997652500981</v>
+        <v>3154.99765250098</v>
       </c>
     </row>
     <row r="5124" spans="1:2">
@@ -41431,7 +41431,7 @@
         <v>5136</v>
       </c>
       <c r="B5136">
-        <v>2520.979490302573</v>
+        <v>2520.979490302572</v>
       </c>
     </row>
     <row r="5137" spans="1:2">
@@ -41487,7 +41487,7 @@
         <v>5143</v>
       </c>
       <c r="B5143">
-        <v>2700.107439842774</v>
+        <v>2700.107439842773</v>
       </c>
     </row>
     <row r="5144" spans="1:2">
@@ -41607,7 +41607,7 @@
         <v>5158</v>
       </c>
       <c r="B5158">
-        <v>2670.779821003933</v>
+        <v>2670.779821003932</v>
       </c>
     </row>
     <row r="5159" spans="1:2">
@@ -41911,7 +41911,7 @@
         <v>5196</v>
       </c>
       <c r="B5196">
-        <v>2397.684504337745</v>
+        <v>2397.684504337744</v>
       </c>
     </row>
     <row r="5197" spans="1:2">
@@ -42119,7 +42119,7 @@
         <v>5222</v>
       </c>
       <c r="B5222">
-        <v>1137.874683996153</v>
+        <v>1137.874683996152</v>
       </c>
     </row>
     <row r="5223" spans="1:2">
@@ -42223,7 +42223,7 @@
         <v>5235</v>
       </c>
       <c r="B5235">
-        <v>374.2370628186049</v>
+        <v>374.2370628186048</v>
       </c>
     </row>
     <row r="5236" spans="1:2">
@@ -42335,7 +42335,7 @@
         <v>5249</v>
       </c>
       <c r="B5249">
-        <v>1469.320444459815</v>
+        <v>1469.320444459814</v>
       </c>
     </row>
     <row r="5250" spans="1:2">
@@ -42391,7 +42391,7 @@
         <v>5256</v>
       </c>
       <c r="B5256">
-        <v>851.26586173729</v>
+        <v>851.2658617372899</v>
       </c>
     </row>
     <row r="5257" spans="1:2">
@@ -42407,7 +42407,7 @@
         <v>5258</v>
       </c>
       <c r="B5258">
-        <v>987.1892787580354</v>
+        <v>987.1892787580352</v>
       </c>
     </row>
     <row r="5259" spans="1:2">
@@ -42423,7 +42423,7 @@
         <v>5260</v>
       </c>
       <c r="B5260">
-        <v>671.5664236716996</v>
+        <v>671.5664236716995</v>
       </c>
     </row>
     <row r="5261" spans="1:2">
@@ -42607,7 +42607,7 @@
         <v>5283</v>
       </c>
       <c r="B5283">
-        <v>902.2455689124311</v>
+        <v>902.2455689124308</v>
       </c>
     </row>
     <row r="5284" spans="1:2">
@@ -42719,7 +42719,7 @@
         <v>5297</v>
       </c>
       <c r="B5297">
-        <v>2416.402951577045</v>
+        <v>2416.402951577044</v>
       </c>
     </row>
     <row r="5298" spans="1:2">
@@ -42751,7 +42751,7 @@
         <v>5301</v>
       </c>
       <c r="B5301">
-        <v>2014.359308610252</v>
+        <v>2014.359308610251</v>
       </c>
     </row>
     <row r="5302" spans="1:2">
@@ -42863,7 +42863,7 @@
         <v>5315</v>
       </c>
       <c r="B5315">
-        <v>2495.291813763906</v>
+        <v>2495.291813763905</v>
       </c>
     </row>
     <row r="5316" spans="1:2">
@@ -43031,7 +43031,7 @@
         <v>5336</v>
       </c>
       <c r="B5336">
-        <v>2083.527004444716</v>
+        <v>2083.527004444715</v>
       </c>
     </row>
     <row r="5337" spans="1:2">
@@ -43095,7 +43095,7 @@
         <v>5344</v>
       </c>
       <c r="B5344">
-        <v>3300.507423196339</v>
+        <v>3300.507423196338</v>
       </c>
     </row>
     <row r="5345" spans="1:2">
@@ -43215,7 +43215,7 @@
         <v>5359</v>
       </c>
       <c r="B5359">
-        <v>2538.909576447874</v>
+        <v>2538.909576447873</v>
       </c>
     </row>
     <row r="5360" spans="1:2">
@@ -43431,7 +43431,7 @@
         <v>5386</v>
       </c>
       <c r="B5386">
-        <v>3467.821679168101</v>
+        <v>3467.8216791681</v>
       </c>
     </row>
     <row r="5387" spans="1:2">
@@ -43575,7 +43575,7 @@
         <v>5404</v>
       </c>
       <c r="B5404">
-        <v>2481.68452543886</v>
+        <v>2481.684525438859</v>
       </c>
     </row>
     <row r="5405" spans="1:2">
@@ -43639,7 +43639,7 @@
         <v>5412</v>
       </c>
       <c r="B5412">
-        <v>3173.343899521181</v>
+        <v>3173.34389952118</v>
       </c>
     </row>
     <row r="5413" spans="1:2">
@@ -43775,7 +43775,7 @@
         <v>5429</v>
       </c>
       <c r="B5429">
-        <v>894.3707501036007</v>
+        <v>894.3707501036006</v>
       </c>
     </row>
     <row r="5430" spans="1:2">
@@ -44215,7 +44215,7 @@
         <v>5484</v>
       </c>
       <c r="B5484">
-        <v>3020.565967067022</v>
+        <v>3020.565967067021</v>
       </c>
     </row>
     <row r="5485" spans="1:2">
@@ -44231,7 +44231,7 @@
         <v>5486</v>
       </c>
       <c r="B5486">
-        <v>3375.650837509108</v>
+        <v>3375.650837509107</v>
       </c>
     </row>
     <row r="5487" spans="1:2">
@@ -44247,7 +44247,7 @@
         <v>5488</v>
       </c>
       <c r="B5488">
-        <v>2912.472575877558</v>
+        <v>2912.472575877557</v>
       </c>
     </row>
     <row r="5489" spans="1:2">
@@ -44407,7 +44407,7 @@
         <v>5508</v>
       </c>
       <c r="B5508">
-        <v>2148.814439727304</v>
+        <v>2148.814439727303</v>
       </c>
     </row>
     <row r="5509" spans="1:2">
@@ -44543,7 +44543,7 @@
         <v>5525</v>
       </c>
       <c r="B5525">
-        <v>1852.17672652545</v>
+        <v>1852.176726525449</v>
       </c>
     </row>
     <row r="5526" spans="1:2">
@@ -44599,7 +44599,7 @@
         <v>5532</v>
       </c>
       <c r="B5532">
-        <v>2453.760716875207</v>
+        <v>2453.760716875206</v>
       </c>
     </row>
     <row r="5533" spans="1:2">
@@ -44703,7 +44703,7 @@
         <v>5545</v>
       </c>
       <c r="B5545">
-        <v>2334.392882828441</v>
+        <v>2334.39288282844</v>
       </c>
     </row>
     <row r="5546" spans="1:2">
@@ -44791,7 +44791,7 @@
         <v>5556</v>
       </c>
       <c r="B5556">
-        <v>2865.973924883549</v>
+        <v>2865.973924883548</v>
       </c>
     </row>
     <row r="5557" spans="1:2">
@@ -44847,7 +44847,7 @@
         <v>5563</v>
       </c>
       <c r="B5563">
-        <v>2765.629331956291</v>
+        <v>2765.62933195629</v>
       </c>
     </row>
     <row r="5564" spans="1:2">
@@ -44863,7 +44863,7 @@
         <v>5565</v>
       </c>
       <c r="B5565">
-        <v>2627.82439886734</v>
+        <v>2627.824398867339</v>
       </c>
     </row>
     <row r="5566" spans="1:2">
@@ -45231,7 +45231,7 @@
         <v>5611</v>
       </c>
       <c r="B5611">
-        <v>1572.94743302008</v>
+        <v>1572.947433020079</v>
       </c>
     </row>
     <row r="5612" spans="1:2">
@@ -45687,7 +45687,7 @@
         <v>5668</v>
       </c>
       <c r="B5668">
-        <v>764.1915254406177</v>
+        <v>764.1915254406176</v>
       </c>
     </row>
     <row r="5669" spans="1:2">
@@ -45759,7 +45759,7 @@
         <v>5677</v>
       </c>
       <c r="B5677">
-        <v>2160.211972420844</v>
+        <v>2160.211972420843</v>
       </c>
     </row>
     <row r="5678" spans="1:2">
@@ -45927,7 +45927,7 @@
         <v>5698</v>
       </c>
       <c r="B5698">
-        <v>2685.368897308495</v>
+        <v>2685.368897308494</v>
       </c>
     </row>
     <row r="5699" spans="1:2">
@@ -46039,7 +46039,7 @@
         <v>5712</v>
       </c>
       <c r="B5712">
-        <v>2298.219124526471</v>
+        <v>2298.21912452647</v>
       </c>
     </row>
     <row r="5713" spans="1:2">
@@ -46119,7 +46119,7 @@
         <v>5722</v>
       </c>
       <c r="B5722">
-        <v>2824.955702312507</v>
+        <v>2824.955702312506</v>
       </c>
     </row>
     <row r="5723" spans="1:2">
@@ -46311,7 +46311,7 @@
         <v>5746</v>
       </c>
       <c r="B5746">
-        <v>2881.310332336697</v>
+        <v>2881.310332336696</v>
       </c>
     </row>
     <row r="5747" spans="1:2">
@@ -46391,7 +46391,7 @@
         <v>5756</v>
       </c>
       <c r="B5756">
-        <v>2717.342947626448</v>
+        <v>2717.342947626447</v>
       </c>
     </row>
     <row r="5757" spans="1:2">
@@ -46903,7 +46903,7 @@
         <v>5820</v>
       </c>
       <c r="B5820">
-        <v>2410.394995284488</v>
+        <v>2410.394995284487</v>
       </c>
     </row>
     <row r="5821" spans="1:2">
@@ -46911,7 +46911,7 @@
         <v>5821</v>
       </c>
       <c r="B5821">
-        <v>2502.554114101934</v>
+        <v>2502.554114101933</v>
       </c>
     </row>
     <row r="5822" spans="1:2">
@@ -46935,7 +46935,7 @@
         <v>5824</v>
       </c>
       <c r="B5824">
-        <v>3005.79518671849</v>
+        <v>3005.795186718489</v>
       </c>
     </row>
     <row r="5825" spans="1:2">
@@ -46943,7 +46943,7 @@
         <v>5825</v>
       </c>
       <c r="B5825">
-        <v>3011.217000933725</v>
+        <v>3011.217000933724</v>
       </c>
     </row>
     <row r="5826" spans="1:2">
@@ -46959,7 +46959,7 @@
         <v>5827</v>
       </c>
       <c r="B5827">
-        <v>2763.66575599726</v>
+        <v>2763.665755997259</v>
       </c>
     </row>
     <row r="5828" spans="1:2">
@@ -47063,7 +47063,7 @@
         <v>5840</v>
       </c>
       <c r="B5840">
-        <v>2439.710891281782</v>
+        <v>2439.710891281781</v>
       </c>
     </row>
     <row r="5841" spans="1:2">
@@ -47127,7 +47127,7 @@
         <v>5848</v>
       </c>
       <c r="B5848">
-        <v>3230.375523644679</v>
+        <v>3230.375523644678</v>
       </c>
     </row>
     <row r="5849" spans="1:2">
@@ -47223,7 +47223,7 @@
         <v>5860</v>
       </c>
       <c r="B5860">
-        <v>1929.433183026967</v>
+        <v>1929.433183026966</v>
       </c>
     </row>
     <row r="5861" spans="1:2">
@@ -47287,7 +47287,7 @@
         <v>5868</v>
       </c>
       <c r="B5868">
-        <v>2860.467120067102</v>
+        <v>2860.467120067101</v>
       </c>
     </row>
     <row r="5869" spans="1:2">
@@ -47303,7 +47303,7 @@
         <v>5870</v>
       </c>
       <c r="B5870">
-        <v>3045.44769824937</v>
+        <v>3045.447698249369</v>
       </c>
     </row>
     <row r="5871" spans="1:2">
@@ -47327,7 +47327,7 @@
         <v>5873</v>
       </c>
       <c r="B5873">
-        <v>2868.412275925211</v>
+        <v>2868.41227592521</v>
       </c>
     </row>
     <row r="5874" spans="1:2">
@@ -47335,7 +47335,7 @@
         <v>5874</v>
       </c>
       <c r="B5874">
-        <v>2999.494159387271</v>
+        <v>2999.49415938727</v>
       </c>
     </row>
     <row r="5875" spans="1:2">
@@ -47639,7 +47639,7 @@
         <v>5912</v>
       </c>
       <c r="B5912">
-        <v>359.7241849840951</v>
+        <v>359.724184984095</v>
       </c>
     </row>
     <row r="5913" spans="1:2">
@@ -47655,7 +47655,7 @@
         <v>5914</v>
       </c>
       <c r="B5914">
-        <v>659.8816813602717</v>
+        <v>659.8816813602716</v>
       </c>
     </row>
     <row r="5915" spans="1:2">
@@ -48263,7 +48263,7 @@
         <v>5990</v>
       </c>
       <c r="B5990">
-        <v>1936.965108720564</v>
+        <v>1936.965108720563</v>
       </c>
     </row>
     <row r="5991" spans="1:2">
@@ -48431,7 +48431,7 @@
         <v>6011</v>
       </c>
       <c r="B6011">
-        <v>2092.934584785745</v>
+        <v>2092.934584785744</v>
       </c>
     </row>
     <row r="6012" spans="1:2">
@@ -48559,7 +48559,7 @@
         <v>6027</v>
       </c>
       <c r="B6027">
-        <v>2042.344662092024</v>
+        <v>2042.344662092023</v>
       </c>
     </row>
     <row r="6028" spans="1:2">
@@ -48647,7 +48647,7 @@
         <v>6038</v>
       </c>
       <c r="B6038">
-        <v>2142.618917970003</v>
+        <v>2142.618917970002</v>
       </c>
     </row>
     <row r="6039" spans="1:2">
@@ -48679,7 +48679,7 @@
         <v>6042</v>
       </c>
       <c r="B6042">
-        <v>1989.172783547696</v>
+        <v>1989.172783547695</v>
       </c>
     </row>
     <row r="6043" spans="1:2">
@@ -48951,7 +48951,7 @@
         <v>6076</v>
       </c>
       <c r="B6076">
-        <v>1819.402592271952</v>
+        <v>1819.402592271951</v>
       </c>
     </row>
     <row r="6077" spans="1:2">
@@ -48959,7 +48959,7 @@
         <v>6077</v>
       </c>
       <c r="B6077">
-        <v>1972.508764289412</v>
+        <v>1972.508764289411</v>
       </c>
     </row>
     <row r="6078" spans="1:2">
@@ -49343,7 +49343,7 @@
         <v>6125</v>
       </c>
       <c r="B6125">
-        <v>682.9668870756259</v>
+        <v>682.9668870756258</v>
       </c>
     </row>
     <row r="6126" spans="1:2">
@@ -49495,7 +49495,7 @@
         <v>6144</v>
       </c>
       <c r="B6144">
-        <v>987.025158976385</v>
+        <v>987.0251589763848</v>
       </c>
     </row>
     <row r="6145" spans="1:2">
@@ -49607,7 +49607,7 @@
         <v>6158</v>
       </c>
       <c r="B6158">
-        <v>1438.720897313184</v>
+        <v>1438.720897313183</v>
       </c>
     </row>
     <row r="6159" spans="1:2">
@@ -49615,7 +49615,7 @@
         <v>6159</v>
       </c>
       <c r="B6159">
-        <v>1439.462367040997</v>
+        <v>1439.462367040996</v>
       </c>
     </row>
     <row r="6160" spans="1:2">
@@ -49719,7 +49719,7 @@
         <v>6172</v>
       </c>
       <c r="B6172">
-        <v>1708.721383811108</v>
+        <v>1708.721383811107</v>
       </c>
     </row>
     <row r="6173" spans="1:2">
@@ -49743,7 +49743,7 @@
         <v>6175</v>
       </c>
       <c r="B6175">
-        <v>1687.227553835685</v>
+        <v>1687.227553835684</v>
       </c>
     </row>
     <row r="6176" spans="1:2">
@@ -49815,7 +49815,7 @@
         <v>6184</v>
       </c>
       <c r="B6184">
-        <v>1506.622526260631</v>
+        <v>1506.62252626063</v>
       </c>
     </row>
     <row r="6185" spans="1:2">
@@ -50199,7 +50199,7 @@
         <v>6232</v>
       </c>
       <c r="B6232">
-        <v>2266.87517694164</v>
+        <v>2266.875176941639</v>
       </c>
     </row>
     <row r="6233" spans="1:2">
@@ -50255,7 +50255,7 @@
         <v>6239</v>
       </c>
       <c r="B6239">
-        <v>2013.858157134141</v>
+        <v>2013.85815713414</v>
       </c>
     </row>
     <row r="6240" spans="1:2">
@@ -50319,7 +50319,7 @@
         <v>6247</v>
       </c>
       <c r="B6247">
-        <v>2749.129432479657</v>
+        <v>2749.129432479656</v>
       </c>
     </row>
     <row r="6248" spans="1:2">
@@ -50383,7 +50383,7 @@
         <v>6255</v>
       </c>
       <c r="B6255">
-        <v>2213.231454025068</v>
+        <v>2213.231454025067</v>
       </c>
     </row>
     <row r="6256" spans="1:2">
@@ -50431,7 +50431,7 @@
         <v>6261</v>
       </c>
       <c r="B6261">
-        <v>533.9138875228523</v>
+        <v>533.9138875228522</v>
       </c>
     </row>
     <row r="6262" spans="1:2">
@@ -50439,7 +50439,7 @@
         <v>6262</v>
       </c>
       <c r="B6262">
-        <v>840.1467465304786</v>
+        <v>840.1467465304785</v>
       </c>
     </row>
     <row r="6263" spans="1:2">
@@ -50455,7 +50455,7 @@
         <v>6264</v>
       </c>
       <c r="B6264">
-        <v>460.6402664367427</v>
+        <v>460.6402664367426</v>
       </c>
     </row>
     <row r="6265" spans="1:2">
@@ -50591,7 +50591,7 @@
         <v>6281</v>
       </c>
       <c r="B6281">
-        <v>2221.923941031763</v>
+        <v>2221.923941031762</v>
       </c>
     </row>
     <row r="6282" spans="1:2">
@@ -50703,7 +50703,7 @@
         <v>6295</v>
       </c>
       <c r="B6295">
-        <v>2050.310332922839</v>
+        <v>2050.310332922838</v>
       </c>
     </row>
     <row r="6296" spans="1:2">
@@ -50743,7 +50743,7 @@
         <v>6300</v>
       </c>
       <c r="B6300">
-        <v>2648.18697463353</v>
+        <v>2648.186974633529</v>
       </c>
     </row>
     <row r="6301" spans="1:2">
@@ -50751,7 +50751,7 @@
         <v>6301</v>
       </c>
       <c r="B6301">
-        <v>2892.077762297115</v>
+        <v>2892.077762297114</v>
       </c>
     </row>
     <row r="6302" spans="1:2">
@@ -50783,7 +50783,7 @@
         <v>6305</v>
       </c>
       <c r="B6305">
-        <v>2851.59879043721</v>
+        <v>2851.598790437209</v>
       </c>
     </row>
     <row r="6306" spans="1:2">
@@ -50823,7 +50823,7 @@
         <v>6310</v>
       </c>
       <c r="B6310">
-        <v>828.4620042190508</v>
+        <v>828.4620042190506</v>
       </c>
     </row>
     <row r="6311" spans="1:2">
@@ -50831,7 +50831,7 @@
         <v>6311</v>
       </c>
       <c r="B6311">
-        <v>680.4054461977257</v>
+        <v>680.4054461977256</v>
       </c>
     </row>
     <row r="6312" spans="1:2">
@@ -50879,7 +50879,7 @@
         <v>6317</v>
       </c>
       <c r="B6317">
-        <v>83.55572540650419</v>
+        <v>83.55572540650418</v>
       </c>
     </row>
     <row r="6318" spans="1:2">
@@ -50887,7 +50887,7 @@
         <v>6318</v>
       </c>
       <c r="B6318">
-        <v>203.5246481535646</v>
+        <v>203.5246481535645</v>
       </c>
     </row>
     <row r="6319" spans="1:2">
@@ -50935,7 +50935,7 @@
         <v>6324</v>
       </c>
       <c r="B6324">
-        <v>699.0857942019999</v>
+        <v>699.0857942019998</v>
       </c>
     </row>
     <row r="6325" spans="1:2">
@@ -50959,7 +50959,7 @@
         <v>6327</v>
       </c>
       <c r="B6327">
-        <v>827.0933624685023</v>
+        <v>827.0933624685022</v>
       </c>
     </row>
     <row r="6328" spans="1:2">
@@ -51135,7 +51135,7 @@
         <v>6349</v>
       </c>
       <c r="B6349">
-        <v>916.4595142875064</v>
+        <v>916.4595142875062</v>
       </c>
     </row>
     <row r="6350" spans="1:2">
@@ -51183,7 +51183,7 @@
         <v>6355</v>
       </c>
       <c r="B6355">
-        <v>428.6544932772435</v>
+        <v>428.6544932772434</v>
       </c>
     </row>
     <row r="6356" spans="1:2">
@@ -51191,7 +51191,7 @@
         <v>6356</v>
       </c>
       <c r="B6356">
-        <v>669.1691025754498</v>
+        <v>669.1691025754496</v>
       </c>
     </row>
     <row r="6357" spans="1:2">
@@ -51255,7 +51255,7 @@
         <v>6364</v>
       </c>
       <c r="B6364">
-        <v>582.1680340384428</v>
+        <v>582.1680340384427</v>
       </c>
     </row>
     <row r="6365" spans="1:2">
@@ -51375,7 +51375,7 @@
         <v>6379</v>
       </c>
       <c r="B6379">
-        <v>825.8126420295522</v>
+        <v>825.8126420295521</v>
       </c>
     </row>
     <row r="6380" spans="1:2">
@@ -51511,7 +51511,7 @@
         <v>6396</v>
       </c>
       <c r="B6396">
-        <v>567.2096882251677</v>
+        <v>567.2096882251676</v>
       </c>
     </row>
     <row r="6397" spans="1:2">
@@ -51543,7 +51543,7 @@
         <v>6400</v>
       </c>
       <c r="B6400">
-        <v>447.2527813906925</v>
+        <v>447.2527813906924</v>
       </c>
     </row>
     <row r="6401" spans="1:2">
@@ -51703,7 +51703,7 @@
         <v>6420</v>
       </c>
       <c r="B6420">
-        <v>645.0405639624612</v>
+        <v>645.0405639624611</v>
       </c>
     </row>
     <row r="6421" spans="1:2">
@@ -51839,7 +51839,7 @@
         <v>6437</v>
       </c>
       <c r="B6437">
-        <v>477.5563267882756</v>
+        <v>477.5563267882755</v>
       </c>
     </row>
     <row r="6438" spans="1:2">
@@ -51847,7 +51847,7 @@
         <v>6438</v>
       </c>
       <c r="B6438">
-        <v>77.4516418132657</v>
+        <v>77.45164181326568</v>
       </c>
     </row>
     <row r="6439" spans="1:2">
@@ -51943,7 +51943,7 @@
         <v>6450</v>
       </c>
       <c r="B6450">
-        <v>813.4010835422442</v>
+        <v>813.4010835422441</v>
       </c>
     </row>
     <row r="6451" spans="1:2">
@@ -51959,7 +51959,7 @@
         <v>6452</v>
       </c>
       <c r="B6452">
-        <v>239.060976946446</v>
+        <v>239.0609769464459</v>
       </c>
     </row>
     <row r="6453" spans="1:2">
@@ -51975,7 +51975,7 @@
         <v>6454</v>
       </c>
       <c r="B6454">
-        <v>82.81396260765233</v>
+        <v>82.81396260765231</v>
       </c>
     </row>
     <row r="6455" spans="1:2">
@@ -52159,7 +52159,7 @@
         <v>6477</v>
       </c>
       <c r="B6477">
-        <v>902.2895295682304</v>
+        <v>902.28952956823</v>
       </c>
     </row>
     <row r="6478" spans="1:2">
@@ -52191,7 +52191,7 @@
         <v>6481</v>
       </c>
       <c r="B6481">
-        <v>824.5612286944682</v>
+        <v>824.5612286944681</v>
       </c>
     </row>
     <row r="6482" spans="1:2">
@@ -52199,7 +52199,7 @@
         <v>6482</v>
       </c>
       <c r="B6482">
-        <v>815.3646595012752</v>
+        <v>815.3646595012751</v>
       </c>
     </row>
     <row r="6483" spans="1:2">
@@ -52223,7 +52223,7 @@
         <v>6485</v>
       </c>
       <c r="B6485">
-        <v>969.731036984979</v>
+        <v>969.7310369849788</v>
       </c>
     </row>
     <row r="6486" spans="1:2">
@@ -52375,7 +52375,7 @@
         <v>6504</v>
       </c>
       <c r="B6504">
-        <v>2037.966180774423</v>
+        <v>2037.966180774422</v>
       </c>
     </row>
     <row r="6505" spans="1:2">
@@ -52463,7 +52463,7 @@
         <v>6515</v>
       </c>
       <c r="B6515">
-        <v>1094.620329400125</v>
+        <v>1094.620329400124</v>
       </c>
     </row>
     <row r="6516" spans="1:2">
@@ -52527,7 +52527,7 @@
         <v>6523</v>
       </c>
       <c r="B6523">
-        <v>827.7644951470368</v>
+        <v>827.7644951470367</v>
       </c>
     </row>
     <row r="6524" spans="1:2">
@@ -52559,7 +52559,7 @@
         <v>6527</v>
       </c>
       <c r="B6527">
-        <v>536.6218639200831</v>
+        <v>536.621863920083</v>
       </c>
     </row>
     <row r="6528" spans="1:2">
@@ -52583,7 +52583,7 @@
         <v>6530</v>
       </c>
       <c r="B6530">
-        <v>639.8619987093152</v>
+        <v>639.8619987093151</v>
       </c>
     </row>
     <row r="6531" spans="1:2">
@@ -52607,7 +52607,7 @@
         <v>6533</v>
       </c>
       <c r="B6533">
-        <v>639.7858002392633</v>
+        <v>639.7858002392632</v>
       </c>
     </row>
     <row r="6534" spans="1:2">
@@ -52735,7 +52735,7 @@
         <v>6549</v>
       </c>
       <c r="B6549">
-        <v>825.7393742698869</v>
+        <v>825.7393742698868</v>
       </c>
     </row>
     <row r="6550" spans="1:2">
@@ -52855,7 +52855,7 @@
         <v>6564</v>
       </c>
       <c r="B6564">
-        <v>555.8385319251075</v>
+        <v>555.8385319251074</v>
       </c>
     </row>
     <row r="6565" spans="1:2">
@@ -52887,7 +52887,7 @@
         <v>6568</v>
       </c>
       <c r="B6568">
-        <v>695.6480709185023</v>
+        <v>695.6480709185022</v>
       </c>
     </row>
     <row r="6569" spans="1:2">
@@ -52895,7 +52895,7 @@
         <v>6569</v>
       </c>
       <c r="B6569">
-        <v>694.6809364909199</v>
+        <v>694.6809364909197</v>
       </c>
     </row>
     <row r="6570" spans="1:2">
@@ -52967,7 +52967,7 @@
         <v>6578</v>
       </c>
       <c r="B6578">
-        <v>370.2923266382232</v>
+        <v>370.2923266382231</v>
       </c>
     </row>
     <row r="6579" spans="1:2">
@@ -53287,7 +53287,7 @@
         <v>6618</v>
       </c>
       <c r="B6618">
-        <v>1475.961434195881</v>
+        <v>1475.96143419588</v>
       </c>
     </row>
     <row r="6619" spans="1:2">
@@ -53399,7 +53399,7 @@
         <v>6632</v>
       </c>
       <c r="B6632">
-        <v>1452.647633070371</v>
+        <v>1452.64763307037</v>
       </c>
     </row>
     <row r="6633" spans="1:2">
@@ -53519,7 +53519,7 @@
         <v>6647</v>
       </c>
       <c r="B6647">
-        <v>568.0889013411518</v>
+        <v>568.0889013411517</v>
       </c>
     </row>
     <row r="6648" spans="1:2">
@@ -53567,7 +53567,7 @@
         <v>6653</v>
       </c>
       <c r="B6653">
-        <v>81.13759626650943</v>
+        <v>81.13759626650942</v>
       </c>
     </row>
     <row r="6654" spans="1:2">
@@ -53639,7 +53639,7 @@
         <v>6662</v>
       </c>
       <c r="B6662">
-        <v>1501.443961007485</v>
+        <v>1501.443961007484</v>
       </c>
     </row>
     <row r="6663" spans="1:2">
@@ -53727,7 +53727,7 @@
         <v>6673</v>
       </c>
       <c r="B6673">
-        <v>1481.230851471012</v>
+        <v>1481.230851471011</v>
       </c>
     </row>
     <row r="6674" spans="1:2">
@@ -53783,7 +53783,7 @@
         <v>6680</v>
       </c>
       <c r="B6680">
-        <v>730.8341798201834</v>
+        <v>730.8341798201833</v>
       </c>
     </row>
     <row r="6681" spans="1:2">
@@ -53815,7 +53815,7 @@
         <v>6684</v>
       </c>
       <c r="B6684">
-        <v>465.619543383599</v>
+        <v>465.6195433835989</v>
       </c>
     </row>
     <row r="6685" spans="1:2">
@@ -53831,7 +53831,7 @@
         <v>6686</v>
       </c>
       <c r="B6686">
-        <v>435.6500989700898</v>
+        <v>435.6500989700897</v>
       </c>
     </row>
     <row r="6687" spans="1:2">
@@ -53839,7 +53839,7 @@
         <v>6687</v>
       </c>
       <c r="B6687">
-        <v>446.619747947184</v>
+        <v>446.6197479471839</v>
       </c>
     </row>
     <row r="6688" spans="1:2">
@@ -53847,7 +53847,7 @@
         <v>6688</v>
       </c>
       <c r="B6688">
-        <v>446.194794941125</v>
+        <v>446.1947949411249</v>
       </c>
     </row>
     <row r="6689" spans="1:2">
@@ -54191,7 +54191,7 @@
         <v>6731</v>
       </c>
       <c r="B6731">
-        <v>90.46780585333202</v>
+        <v>90.467805853332</v>
       </c>
     </row>
     <row r="6732" spans="1:2">
@@ -54223,7 +54223,7 @@
         <v>6735</v>
       </c>
       <c r="B6735">
-        <v>360.2751585367784</v>
+        <v>360.2751585367783</v>
       </c>
     </row>
     <row r="6736" spans="1:2">
@@ -54399,7 +54399,7 @@
         <v>6757</v>
       </c>
       <c r="B6757">
-        <v>665.8193006035506</v>
+        <v>665.8193006035505</v>
       </c>
     </row>
     <row r="6758" spans="1:2">
@@ -54407,7 +54407,7 @@
         <v>6758</v>
       </c>
       <c r="B6758">
-        <v>533.7351141892689</v>
+        <v>533.7351141892688</v>
       </c>
     </row>
     <row r="6759" spans="1:2">
@@ -54687,7 +54687,7 @@
         <v>6793</v>
       </c>
       <c r="B6793">
-        <v>597.7388983225201</v>
+        <v>597.73889832252</v>
       </c>
     </row>
     <row r="6794" spans="1:2">
@@ -55071,7 +55071,7 @@
         <v>6841</v>
       </c>
       <c r="B6841">
-        <v>793.8854830777852</v>
+        <v>793.8854830777851</v>
       </c>
     </row>
     <row r="6842" spans="1:2">
@@ -55119,7 +55119,7 @@
         <v>6847</v>
       </c>
       <c r="B6847">
-        <v>735.7313968762145</v>
+        <v>735.7313968762144</v>
       </c>
     </row>
     <row r="6848" spans="1:2">
@@ -55159,7 +55159,7 @@
         <v>6852</v>
       </c>
       <c r="B6852">
-        <v>2000.189323890976</v>
+        <v>2000.189323890975</v>
       </c>
     </row>
     <row r="6853" spans="1:2">
@@ -55303,7 +55303,7 @@
         <v>6870</v>
       </c>
       <c r="B6870">
-        <v>1120.460402878896</v>
+        <v>1120.460402878895</v>
       </c>
     </row>
     <row r="6871" spans="1:2">
@@ -55399,7 +55399,7 @@
         <v>6882</v>
       </c>
       <c r="B6882">
-        <v>1977.716636646424</v>
+        <v>1977.716636646423</v>
       </c>
     </row>
     <row r="6883" spans="1:2">
@@ -55455,7 +55455,7 @@
         <v>6889</v>
       </c>
       <c r="B6889">
-        <v>436.4091529602227</v>
+        <v>436.4091529602226</v>
       </c>
     </row>
     <row r="6890" spans="1:2">
@@ -55519,7 +55519,7 @@
         <v>6897</v>
       </c>
       <c r="B6897">
-        <v>676.150054716363</v>
+        <v>676.1500547163629</v>
       </c>
     </row>
     <row r="6898" spans="1:2">
@@ -55711,7 +55711,7 @@
         <v>6921</v>
       </c>
       <c r="B6921">
-        <v>913.9156576719258</v>
+        <v>913.9156576719256</v>
       </c>
     </row>
     <row r="6922" spans="1:2">
@@ -55927,7 +55927,7 @@
         <v>6948</v>
       </c>
       <c r="B6948">
-        <v>400.0243835104167</v>
+        <v>400.0243835104166</v>
       </c>
     </row>
     <row r="6949" spans="1:2">
@@ -56119,7 +56119,7 @@
         <v>6972</v>
       </c>
       <c r="B6972">
-        <v>249.2844670591084</v>
+        <v>249.2844670591083</v>
       </c>
     </row>
     <row r="6973" spans="1:2">
@@ -56351,7 +56351,7 @@
         <v>7001</v>
       </c>
       <c r="B7001">
-        <v>423.3557688982464</v>
+        <v>423.3557688982463</v>
       </c>
     </row>
     <row r="7002" spans="1:2">
@@ -56487,7 +56487,7 @@
         <v>7018</v>
       </c>
       <c r="B7018">
-        <v>731.5932338103163</v>
+        <v>731.5932338103162</v>
       </c>
     </row>
     <row r="7019" spans="1:2">
@@ -56495,7 +56495,7 @@
         <v>7019</v>
       </c>
       <c r="B7019">
-        <v>928.888657037134</v>
+        <v>928.8886570371338</v>
       </c>
     </row>
     <row r="7020" spans="1:2">
@@ -56551,7 +56551,7 @@
         <v>7026</v>
       </c>
       <c r="B7026">
-        <v>402.6444385960491</v>
+        <v>402.644438596049</v>
       </c>
     </row>
     <row r="7027" spans="1:2">
@@ -56599,7 +56599,7 @@
         <v>7032</v>
       </c>
       <c r="B7032">
-        <v>77.5304779226656</v>
+        <v>77.53047792266558</v>
       </c>
     </row>
     <row r="7033" spans="1:2">
@@ -56623,7 +56623,7 @@
         <v>7035</v>
       </c>
       <c r="B7035">
-        <v>81.70644715255111</v>
+        <v>81.70644715255109</v>
       </c>
     </row>
     <row r="7036" spans="1:2">
@@ -56719,7 +56719,7 @@
         <v>7047</v>
       </c>
       <c r="B7047">
-        <v>1652.161604059855</v>
+        <v>1652.161604059854</v>
       </c>
     </row>
     <row r="7048" spans="1:2">
@@ -56751,7 +56751,7 @@
         <v>7051</v>
       </c>
       <c r="B7051">
-        <v>1490.131418915157</v>
+        <v>1490.131418915156</v>
       </c>
     </row>
     <row r="7052" spans="1:2">
@@ -56767,7 +56767,7 @@
         <v>7053</v>
       </c>
       <c r="B7053">
-        <v>1190.120458058311</v>
+        <v>1190.12045805831</v>
       </c>
     </row>
     <row r="7054" spans="1:2">
@@ -56911,7 +56911,7 @@
         <v>7071</v>
       </c>
       <c r="B7071">
-        <v>1512.785810203679</v>
+        <v>1512.785810203678</v>
       </c>
     </row>
     <row r="7072" spans="1:2">
@@ -56983,7 +56983,7 @@
         <v>7080</v>
       </c>
       <c r="B7080">
-        <v>556.6268930191065</v>
+        <v>556.6268930191064</v>
       </c>
     </row>
     <row r="7081" spans="1:2">
@@ -57215,7 +57215,7 @@
         <v>7109</v>
       </c>
       <c r="B7109">
-        <v>1368.049747050387</v>
+        <v>1368.049747050386</v>
       </c>
     </row>
     <row r="7110" spans="1:2">
@@ -57231,7 +57231,7 @@
         <v>7111</v>
       </c>
       <c r="B7111">
-        <v>1166.094494308854</v>
+        <v>1166.094494308853</v>
       </c>
     </row>
     <row r="7112" spans="1:2">
@@ -57263,7 +57263,7 @@
         <v>7115</v>
       </c>
       <c r="B7115">
-        <v>2009.626211335871</v>
+        <v>2009.62621133587</v>
       </c>
     </row>
     <row r="7116" spans="1:2">
@@ -57431,7 +57431,7 @@
         <v>7136</v>
       </c>
       <c r="B7136">
-        <v>1990.96051688353</v>
+        <v>1990.960516883529</v>
       </c>
     </row>
     <row r="7137" spans="1:2">
@@ -57615,7 +57615,7 @@
         <v>7159</v>
       </c>
       <c r="B7159">
-        <v>99.3894744122607</v>
+        <v>99.38947441226068</v>
       </c>
     </row>
     <row r="7160" spans="1:2">
@@ -57687,7 +57687,7 @@
         <v>7168</v>
       </c>
       <c r="B7168">
-        <v>79.51222428609361</v>
+        <v>79.5122242860936</v>
       </c>
     </row>
     <row r="7169" spans="1:2">
@@ -58263,7 +58263,7 @@
         <v>7240</v>
       </c>
       <c r="B7240">
-        <v>446.1654878372589</v>
+        <v>446.1654878372588</v>
       </c>
     </row>
     <row r="7241" spans="1:2">
@@ -58423,7 +58423,7 @@
         <v>7260</v>
       </c>
       <c r="B7260">
-        <v>698.8484066606842</v>
+        <v>698.8484066606841</v>
       </c>
     </row>
     <row r="7261" spans="1:2">
@@ -58471,7 +58471,7 @@
         <v>7266</v>
       </c>
       <c r="B7266">
-        <v>237.5460927476055</v>
+        <v>237.5460927476054</v>
       </c>
     </row>
     <row r="7267" spans="1:2">
@@ -58615,7 +58615,7 @@
         <v>7284</v>
       </c>
       <c r="B7284">
-        <v>565.6329660371697</v>
+        <v>565.6329660371696</v>
       </c>
     </row>
     <row r="7285" spans="1:2">
@@ -58623,7 +58623,7 @@
         <v>7285</v>
       </c>
       <c r="B7285">
-        <v>708.7776534505306</v>
+        <v>708.7776534505305</v>
       </c>
     </row>
     <row r="7286" spans="1:2">
@@ -58639,7 +58639,7 @@
         <v>7287</v>
       </c>
       <c r="B7287">
-        <v>694.7395506986521</v>
+        <v>694.739550698652</v>
       </c>
     </row>
     <row r="7288" spans="1:2">
@@ -58647,7 +58647,7 @@
         <v>7288</v>
       </c>
       <c r="B7288">
-        <v>640.0554255948317</v>
+        <v>640.0554255948316</v>
       </c>
     </row>
     <row r="7289" spans="1:2">
@@ -58815,7 +58815,7 @@
         <v>7309</v>
       </c>
       <c r="B7309">
-        <v>455.3356806369724</v>
+        <v>455.3356806369723</v>
       </c>
     </row>
     <row r="7310" spans="1:2">
@@ -58823,7 +58823,7 @@
         <v>7310</v>
       </c>
       <c r="B7310">
-        <v>445.2130069616095</v>
+        <v>445.2130069616094</v>
       </c>
     </row>
     <row r="7311" spans="1:2">
@@ -58855,7 +58855,7 @@
         <v>7314</v>
       </c>
       <c r="B7314">
-        <v>79.40027114932498</v>
+        <v>79.40027114932496</v>
       </c>
     </row>
     <row r="7315" spans="1:2">
@@ -59255,7 +59255,7 @@
         <v>7364</v>
       </c>
       <c r="B7364">
-        <v>83.47366551567902</v>
+        <v>83.473665515679</v>
       </c>
     </row>
     <row r="7365" spans="1:2">
@@ -59399,7 +59399,7 @@
         <v>7382</v>
       </c>
       <c r="B7382">
-        <v>821.7330931713863</v>
+        <v>821.7330931713861</v>
       </c>
     </row>
     <row r="7383" spans="1:2">
@@ -59959,7 +59959,7 @@
         <v>7452</v>
       </c>
       <c r="B7452">
-        <v>247.3560596247167</v>
+        <v>247.3560596247166</v>
       </c>
     </row>
     <row r="7453" spans="1:2">
@@ -59983,7 +59983,7 @@
         <v>7455</v>
       </c>
       <c r="B7455">
-        <v>544.3765236030623</v>
+        <v>544.3765236030622</v>
       </c>
     </row>
     <row r="7456" spans="1:2">
@@ -59991,7 +59991,7 @@
         <v>7456</v>
       </c>
       <c r="B7456">
-        <v>546.6097249176618</v>
+        <v>546.6097249176617</v>
       </c>
     </row>
     <row r="7457" spans="1:2">
@@ -60327,7 +60327,7 @@
         <v>7498</v>
       </c>
       <c r="B7498">
-        <v>834.0303539536163</v>
+        <v>834.0303539536162</v>
       </c>
     </row>
     <row r="7499" spans="1:2">
@@ -60759,7 +60759,7 @@
         <v>7552</v>
       </c>
       <c r="B7552">
-        <v>235.1783718262605</v>
+        <v>235.1783718262604</v>
       </c>
     </row>
     <row r="7553" spans="1:2">
@@ -61127,7 +61127,7 @@
         <v>7598</v>
       </c>
       <c r="B7598">
-        <v>244.6404633804807</v>
+        <v>244.6404633804806</v>
       </c>
     </row>
     <row r="7599" spans="1:2">
@@ -63991,7 +63991,7 @@
         <v>7956</v>
       </c>
       <c r="B7956">
-        <v>99.27752127549206</v>
+        <v>99.27752127549203</v>
       </c>
     </row>
     <row r="7957" spans="1:2">
@@ -64583,7 +64583,7 @@
         <v>8030</v>
       </c>
       <c r="B8030">
-        <v>823.3567067255701</v>
+        <v>823.35670672557</v>
       </c>
     </row>
     <row r="8031" spans="1:2">
@@ -64599,7 +64599,7 @@
         <v>8032</v>
       </c>
       <c r="B8032">
-        <v>640.4129722619986</v>
+        <v>640.4129722619984</v>
       </c>
     </row>
     <row r="8033" spans="1:2">
@@ -64959,7 +64959,7 @@
         <v>8077</v>
       </c>
       <c r="B8077">
-        <v>762.9547656574669</v>
+        <v>762.9547656574667</v>
       </c>
     </row>
     <row r="8078" spans="1:2">
@@ -64991,7 +64991,7 @@
         <v>8081</v>
       </c>
       <c r="B8081">
-        <v>517.6748212706271</v>
+        <v>517.674821270627</v>
       </c>
     </row>
     <row r="8082" spans="1:2">
@@ -65063,7 +65063,7 @@
         <v>8090</v>
       </c>
       <c r="B8090">
-        <v>235.077555388961</v>
+        <v>235.0775553889609</v>
       </c>
     </row>
     <row r="8091" spans="1:2">
@@ -65071,7 +65071,7 @@
         <v>8091</v>
       </c>
       <c r="B8091">
-        <v>467.9787652448228</v>
+        <v>467.9787652448227</v>
       </c>
     </row>
     <row r="8092" spans="1:2">
@@ -65127,7 +65127,7 @@
         <v>8098</v>
       </c>
       <c r="B8098">
-        <v>711.1134296286615</v>
+        <v>711.1134296286614</v>
       </c>
     </row>
     <row r="8099" spans="1:2">
@@ -65223,7 +65223,7 @@
         <v>8110</v>
       </c>
       <c r="B8110">
-        <v>648.3903659343604</v>
+        <v>648.3903659343603</v>
       </c>
     </row>
     <row r="8111" spans="1:2">
@@ -65263,7 +65263,7 @@
         <v>8115</v>
       </c>
       <c r="B8115">
-        <v>581.4998320702949</v>
+        <v>581.4998320702948</v>
       </c>
     </row>
     <row r="8116" spans="1:2">
@@ -65407,7 +65407,7 @@
         <v>8133</v>
       </c>
       <c r="B8133">
-        <v>437.3616338358721</v>
+        <v>437.361633835872</v>
       </c>
     </row>
     <row r="8134" spans="1:2">
@@ -65471,7 +65471,7 @@
         <v>8141</v>
       </c>
       <c r="B8141">
-        <v>448.4514419388174</v>
+        <v>448.4514419388173</v>
       </c>
     </row>
     <row r="8142" spans="1:2">
@@ -65479,7 +65479,7 @@
         <v>8142</v>
       </c>
       <c r="B8142">
-        <v>179.6056553332189</v>
+        <v>179.6056553332188</v>
       </c>
     </row>
     <row r="8143" spans="1:2">
@@ -65935,7 +65935,7 @@
         <v>8199</v>
       </c>
       <c r="B8199">
-        <v>43.20218795114624</v>
+        <v>43.20218795114623</v>
       </c>
     </row>
     <row r="8200" spans="1:2">
@@ -65983,7 +65983,7 @@
         <v>8205</v>
       </c>
       <c r="B8205">
-        <v>95.50364551064992</v>
+        <v>95.5036455106499</v>
       </c>
     </row>
     <row r="8206" spans="1:2">
@@ -65999,7 +65999,7 @@
         <v>8207</v>
       </c>
       <c r="B8207">
-        <v>91.3209356468752</v>
+        <v>91.32093564687518</v>
       </c>
     </row>
     <row r="8208" spans="1:2">
@@ -68039,7 +68039,7 @@
         <v>8462</v>
       </c>
       <c r="B8462">
-        <v>90.57712135075271</v>
+        <v>90.57712135075268</v>
       </c>
     </row>
     <row r="8463" spans="1:2">
@@ -68247,7 +68247,7 @@
         <v>8488</v>
       </c>
       <c r="B8488">
-        <v>194.0889329928239</v>
+        <v>194.0889329928238</v>
       </c>
     </row>
     <row r="8489" spans="1:2">
@@ -68423,7 +68423,7 @@
         <v>8510</v>
       </c>
       <c r="B8510">
-        <v>211.4674594433644</v>
+        <v>211.4674594433643</v>
       </c>
     </row>
     <row r="8511" spans="1:2">
@@ -68439,7 +68439,7 @@
         <v>8512</v>
       </c>
       <c r="B8512">
-        <v>77.68551250211745</v>
+        <v>77.68551250211743</v>
       </c>
     </row>
     <row r="8513" spans="1:2">
@@ -68455,7 +68455,7 @@
         <v>8514</v>
       </c>
       <c r="B8514">
-        <v>99.39416354887928</v>
+        <v>99.39416354887926</v>
       </c>
     </row>
     <row r="8515" spans="1:2">
@@ -68463,7 +68463,7 @@
         <v>8515</v>
       </c>
       <c r="B8515">
-        <v>90.5870857660672</v>
+        <v>90.58708576606718</v>
       </c>
     </row>
     <row r="8516" spans="1:2">
@@ -68511,7 +68511,7 @@
         <v>8521</v>
       </c>
       <c r="B8521">
-        <v>700.5452879745334</v>
+        <v>700.5452879745333</v>
       </c>
     </row>
     <row r="8522" spans="1:2">
